--- a/Specification/企画書.xlsx
+++ b/Specification/企画書.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="137">
   <si>
     <t>シートページ</t>
     <phoneticPr fontId="1"/>
@@ -586,6 +586,115 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新履歴</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日時</t>
+    <rPh sb="0" eb="2">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新内容</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目次作成</t>
+    <rPh sb="0" eb="2">
+      <t>モクジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム概要作成</t>
+    <rPh sb="3" eb="5">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦闘システム作成</t>
+    <rPh sb="0" eb="2">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mock版仕様作成</t>
+    <rPh sb="4" eb="5">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企画書兼仕様書</t>
+    <rPh sb="0" eb="3">
+      <t>キカクショ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←更新日時はこのセルを値貼りつけして下さい。</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>クダ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -642,7 +751,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -832,6 +941,21 @@
       <right/>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -846,7 +970,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -923,6 +1047,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1750,15 +1880,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G14"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="19.625" customWidth="1"/>
     <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="5" max="5" width="35.125" customWidth="1"/>
@@ -1766,142 +1895,303 @@
     <col min="7" max="7" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
-      <c r="B2" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="27">
+        <f ca="1">NOW()</f>
+        <v>41907.87161574074</v>
+      </c>
+      <c r="B1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="25"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="14.25" thickBot="1">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="2:7" ht="14.25" thickBot="1">
-      <c r="C4" s="3" t="s">
+    <row r="4" spans="1:7" ht="14.25" thickBot="1">
+      <c r="B4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.25" thickBot="1">
+      <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F5" s="23" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
-      <c r="C5" s="9">
+    <row r="6" spans="1:7">
+      <c r="C6" s="9">
         <v>1</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="8" t="str">
-        <f>HYPERLINK(A1,D5&amp;"へ")</f>
+      <c r="E6" s="8" t="str">
+        <f ca="1">HYPERLINK(A1,D6&amp;"へ")</f>
         <v>目次へ</v>
-      </c>
-      <c r="F5" s="24">
-        <v>41907.724351851852</v>
-      </c>
-      <c r="G5" s="25"/>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="C6" s="10">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="6" t="str">
-        <f>HYPERLINK("#ストーリー!A1",D6&amp;"へ")</f>
-        <v>ゲーム概要へ</v>
       </c>
       <c r="F6" s="24">
         <v>41907.724351851852</v>
       </c>
-    </row>
-    <row r="7" spans="2:7">
+      <c r="G6" s="25"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="C7" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E7" s="6" t="str">
-        <f>HYPERLINK("#戦闘システム!A1",D7&amp;"へ")</f>
-        <v>戦闘システムへ</v>
+        <f>HYPERLINK("#ストーリー!A1",D7&amp;"へ")</f>
+        <v>ゲーム概要へ</v>
       </c>
       <c r="F7" s="24">
         <v>41907.724351851852</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="1:7">
       <c r="C8" s="10">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E8" s="6" t="str">
-        <f>HYPERLINK("#Ｍｏｃｋ版仕様!A1",D8&amp;"へ")</f>
-        <v>Mock版仕様へ</v>
+        <f>HYPERLINK("#戦闘システム!A1",D8&amp;"へ")</f>
+        <v>戦闘システムへ</v>
       </c>
       <c r="F8" s="24">
         <v>41907.724351851852</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="1:7">
       <c r="C9" s="10">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="2:7">
+      <c r="E9" s="6" t="str">
+        <f>HYPERLINK("#Ｍｏｃｋ版仕様!A1",D9&amp;"へ")</f>
+        <v>Mock版仕様へ</v>
+      </c>
+      <c r="F9" s="24">
+        <v>41907.724351851852</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="C10" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="1:7">
       <c r="C11" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="1:7">
       <c r="C12" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="1:7">
       <c r="C13" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="1:7">
       <c r="C14" s="10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
+    <row r="15" spans="1:7">
+      <c r="C15" s="10">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="21" spans="2:5" ht="14.25" thickBot="1">
+      <c r="B21" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="14.25" thickBot="1">
+      <c r="C22" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="C23" s="24">
+        <v>41907.724351851852</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="2:5" ht="14.25" thickBot="1">
+      <c r="C26" s="26"/>
+      <c r="D26" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="26"/>
+    </row>
+    <row r="27" spans="2:5" ht="14.25" thickTop="1">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="3:5">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="3:5">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="3:5">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="3:5">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="3:5">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="3:5">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="3:5">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="3:5">
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="3:5">
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="3:5">
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="3:5">
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="3:5">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2257,7 +2547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K128"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A104" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>

--- a/Specification/企画書.xlsx
+++ b/Specification/企画書.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="142">
   <si>
     <t>シートページ</t>
     <phoneticPr fontId="1"/>
@@ -695,6 +695,53 @@
     </rPh>
     <rPh sb="18" eb="19">
       <t>クダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔王</t>
+    <rPh sb="0" eb="2">
+      <t>マオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隠し武器</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仲間が魔王イメージ</t>
+    <rPh sb="0" eb="2">
+      <t>ナカマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>マオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>世界観イメージ</t>
+    <rPh sb="0" eb="3">
+      <t>セカイカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イメージ画像の位置を修正</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -751,7 +798,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -960,6 +1007,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -970,7 +1032,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1043,9 +1105,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1053,6 +1112,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1069,15 +1146,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>5796</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1109,16 +1186,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>604838</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>33338</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1136,7 +1213,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8191500" y="3552824"/>
+          <a:off x="8991600" y="114299"/>
           <a:ext cx="3386138" cy="2257425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1149,16 +1226,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1176,7 +1253,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7924800" y="8829675"/>
+          <a:off x="15621000" y="4400550"/>
           <a:ext cx="4318000" cy="2428875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1189,15 +1266,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1216,7 +1293,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3324225" y="8829675"/>
+          <a:off x="10915650" y="4371975"/>
           <a:ext cx="4381500" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1229,16 +1306,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>272678</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>253628</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1256,7 +1333,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="752475" y="8848726"/>
+          <a:off x="8277225" y="4333876"/>
           <a:ext cx="2263403" cy="3257550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1274,15 +1351,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1314,15 +1391,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>535821</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1880,7 +1957,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1896,16 +1973,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="27">
+      <c r="A1" s="26">
         <f ca="1">NOW()</f>
-        <v>41907.87161574074</v>
+        <v>41907.998633333336</v>
       </c>
       <c r="B1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="25"/>
+      <c r="A2" s="24"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="11" t="s">
@@ -1944,10 +2021,10 @@
         <f ca="1">HYPERLINK(A1,D6&amp;"へ")</f>
         <v>目次へ</v>
       </c>
-      <c r="F6" s="24">
-        <v>41907.724351851852</v>
-      </c>
-      <c r="G6" s="25"/>
+      <c r="F6" s="26">
+        <v>41907.998383101854</v>
+      </c>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7">
       <c r="C7" s="10">
@@ -1960,8 +2037,8 @@
         <f>HYPERLINK("#ストーリー!A1",D7&amp;"へ")</f>
         <v>ゲーム概要へ</v>
       </c>
-      <c r="F7" s="24">
-        <v>41907.724351851852</v>
+      <c r="F7" s="26">
+        <v>41907.998383101854</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1975,8 +2052,8 @@
         <f>HYPERLINK("#戦闘システム!A1",D8&amp;"へ")</f>
         <v>戦闘システムへ</v>
       </c>
-      <c r="F8" s="24">
-        <v>41907.724351851852</v>
+      <c r="F8" s="26">
+        <v>41907.998383101854</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1990,8 +2067,8 @@
         <f>HYPERLINK("#Ｍｏｃｋ版仕様!A1",D9&amp;"へ")</f>
         <v>Mock版仕様へ</v>
       </c>
-      <c r="F9" s="24">
-        <v>41907.724351851852</v>
+      <c r="F9" s="26">
+        <v>41907.998383101854</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2059,7 +2136,7 @@
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="C23" s="24">
+      <c r="C23" s="27">
         <v>41907.724351851852</v>
       </c>
       <c r="D23" s="7" t="s">
@@ -2068,125 +2145,306 @@
       <c r="E23" s="7"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="C24" s="1"/>
+      <c r="C24" s="28"/>
       <c r="D24" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="C25" s="1"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="2:5" ht="14.25" thickBot="1">
-      <c r="C26" s="26"/>
-      <c r="D26" s="26" t="s">
+      <c r="C26" s="29"/>
+      <c r="D26" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="E26" s="26"/>
-    </row>
-    <row r="27" spans="2:5" ht="14.25" thickTop="1">
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="E26" s="25"/>
+    </row>
+    <row r="27" spans="2:5" ht="15" thickTop="1" thickBot="1">
+      <c r="C27" s="31">
+        <v>41907.997525925923</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" s="32"/>
+    </row>
+    <row r="28" spans="2:5" ht="14.25" thickTop="1">
+      <c r="C28" s="27"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" spans="2:5">
-      <c r="C29" s="1"/>
+      <c r="C29" s="28"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="2:5">
-      <c r="C30" s="1"/>
+      <c r="C30" s="28"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="2:5">
-      <c r="C31" s="1"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="2:5">
-      <c r="C32" s="1"/>
+      <c r="C32" s="28"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="3:5">
-      <c r="C33" s="1"/>
+      <c r="C33" s="28"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="3:5">
-      <c r="C34" s="1"/>
+      <c r="C34" s="28"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="3:5">
-      <c r="C35" s="1"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="3:5">
-      <c r="C36" s="1"/>
+      <c r="C36" s="28"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="3:5">
-      <c r="C37" s="1"/>
+      <c r="C37" s="28"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="3:5">
-      <c r="C38" s="1"/>
+      <c r="C38" s="28"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="3:5">
-      <c r="C39" s="1"/>
+      <c r="C39" s="28"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="3:5">
-      <c r="C40" s="1"/>
+      <c r="C40" s="28"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="3:5">
-      <c r="C41" s="1"/>
+      <c r="C41" s="28"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="3:5">
-      <c r="C42" s="1"/>
+      <c r="C42" s="28"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="3:5">
-      <c r="C43" s="1"/>
+      <c r="C43" s="28"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="3:5">
-      <c r="C44" s="1"/>
+      <c r="C44" s="28"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="3:5">
-      <c r="C45" s="1"/>
+      <c r="C45" s="28"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="3:5">
-      <c r="C46" s="1"/>
+      <c r="C46" s="28"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="3:5">
+      <c r="C47" s="30"/>
+    </row>
+    <row r="48" spans="3:5">
+      <c r="C48" s="30"/>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="30"/>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" s="30"/>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" s="30"/>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" s="30"/>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" s="30"/>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" s="30"/>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" s="30"/>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" s="30"/>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" s="30"/>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" s="30"/>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" s="30"/>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" s="30"/>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" s="30"/>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" s="30"/>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63" s="30"/>
+    </row>
+    <row r="64" spans="3:3">
+      <c r="C64" s="30"/>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" s="30"/>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" s="30"/>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" s="30"/>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" s="30"/>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" s="30"/>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" s="30"/>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71" s="30"/>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72" s="30"/>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" s="30"/>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" s="30"/>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" s="30"/>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" s="30"/>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77" s="30"/>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" s="30"/>
+    </row>
+    <row r="79" spans="3:3">
+      <c r="C79" s="30"/>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" s="30"/>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" s="30"/>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82" s="30"/>
+    </row>
+    <row r="83" spans="3:3">
+      <c r="C83" s="30"/>
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84" s="30"/>
+    </row>
+    <row r="85" spans="3:3">
+      <c r="C85" s="30"/>
+    </row>
+    <row r="86" spans="3:3">
+      <c r="C86" s="30"/>
+    </row>
+    <row r="87" spans="3:3">
+      <c r="C87" s="30"/>
+    </row>
+    <row r="88" spans="3:3">
+      <c r="C88" s="30"/>
+    </row>
+    <row r="89" spans="3:3">
+      <c r="C89" s="30"/>
+    </row>
+    <row r="90" spans="3:3">
+      <c r="C90" s="30"/>
+    </row>
+    <row r="91" spans="3:3">
+      <c r="C91" s="30"/>
+    </row>
+    <row r="92" spans="3:3">
+      <c r="C92" s="30"/>
+    </row>
+    <row r="93" spans="3:3">
+      <c r="C93" s="30"/>
+    </row>
+    <row r="94" spans="3:3">
+      <c r="C94" s="30"/>
+    </row>
+    <row r="95" spans="3:3">
+      <c r="C95" s="30"/>
+    </row>
+    <row r="96" spans="3:3">
+      <c r="C96" s="30"/>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97" s="30"/>
+    </row>
+    <row r="98" spans="3:3">
+      <c r="C98" s="30"/>
+    </row>
+    <row r="99" spans="3:3">
+      <c r="C99" s="30"/>
+    </row>
+    <row r="100" spans="3:3">
+      <c r="C100" s="30"/>
+    </row>
+    <row r="101" spans="3:3">
+      <c r="C101" s="30"/>
+    </row>
+    <row r="102" spans="3:3">
+      <c r="C102" s="30"/>
+    </row>
+    <row r="103" spans="3:3">
+      <c r="C103" s="30"/>
+    </row>
+    <row r="104" spans="3:3">
+      <c r="C104" s="30"/>
+    </row>
+    <row r="105" spans="3:3">
+      <c r="C105" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2197,25 +2455,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:X41"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+      <selection activeCell="P16" sqref="P16:Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="2" spans="1:17">
+      <c r="I2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="B4" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:17">
       <c r="B6" s="14" t="s">
         <v>15</v>
       </c>
@@ -2225,7 +2488,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="16"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:17">
       <c r="A7" s="13"/>
       <c r="B7" s="2" t="s">
         <v>30</v>
@@ -2236,7 +2499,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:17">
       <c r="A8" s="13"/>
       <c r="B8" s="2" t="s">
         <v>7</v>
@@ -2247,7 +2510,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:17">
       <c r="A9" s="13"/>
       <c r="B9" s="2" t="s">
         <v>8</v>
@@ -2258,7 +2521,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:17">
       <c r="A10" s="13"/>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -2269,7 +2532,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:17">
       <c r="A11" s="13"/>
       <c r="B11" s="2" t="s">
         <v>10</v>
@@ -2280,7 +2543,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:17">
       <c r="A12" s="13"/>
       <c r="B12" s="12" t="s">
         <v>11</v>
@@ -2291,56 +2554,163 @@
       <c r="F12" s="12"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="15" spans="1:7">
-      <c r="C15" t="s">
+    <row r="16" spans="1:17">
+      <c r="I16" t="s">
+        <v>124</v>
+      </c>
+      <c r="J16" t="s">
+        <v>122</v>
+      </c>
+      <c r="P16" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24">
+      <c r="M24" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="7:16">
-      <c r="G29" t="s">
-        <v>124</v>
-      </c>
-      <c r="H29" t="s">
-        <v>122</v>
-      </c>
-      <c r="O29" t="s">
-        <v>125</v>
-      </c>
-      <c r="P29" t="s">
-        <v>123</v>
-      </c>
+    <row r="25" spans="2:24">
+      <c r="M25" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>138</v>
+      </c>
+      <c r="X25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24">
+      <c r="B26" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="16"/>
+    </row>
+    <row r="27" spans="2:24">
+      <c r="B27" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="17"/>
+    </row>
+    <row r="28" spans="2:24">
+      <c r="B28" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="13"/>
+    </row>
+    <row r="29" spans="2:24">
+      <c r="B29" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="13"/>
+    </row>
+    <row r="30" spans="2:24">
+      <c r="B30" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="13"/>
+    </row>
+    <row r="31" spans="2:24">
+      <c r="B31" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="13"/>
+    </row>
+    <row r="32" spans="2:24">
+      <c r="B32" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="13"/>
     </row>
     <row r="33" spans="2:11">
-      <c r="B33" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="16"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="13"/>
     </row>
     <row r="34" spans="2:11">
-      <c r="B34" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="17"/>
+      <c r="B34" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="13"/>
     </row>
     <row r="35" spans="2:11">
       <c r="B35" s="21" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -2354,7 +2724,7 @@
     </row>
     <row r="36" spans="2:11">
       <c r="B36" s="21" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2368,7 +2738,7 @@
     </row>
     <row r="37" spans="2:11">
       <c r="B37" s="21" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2381,9 +2751,7 @@
       <c r="K37" s="13"/>
     </row>
     <row r="38" spans="2:11">
-      <c r="B38" s="21" t="s">
-        <v>21</v>
-      </c>
+      <c r="B38" s="21"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -2396,7 +2764,7 @@
     </row>
     <row r="39" spans="2:11">
       <c r="B39" s="21" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2409,7 +2777,9 @@
       <c r="K39" s="13"/>
     </row>
     <row r="40" spans="2:11">
-      <c r="B40" s="21"/>
+      <c r="B40" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -2421,119 +2791,18 @@
       <c r="K40" s="13"/>
     </row>
     <row r="41" spans="2:11">
-      <c r="B41" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="13"/>
-    </row>
-    <row r="42" spans="2:11">
-      <c r="B42" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="13"/>
-    </row>
-    <row r="43" spans="2:11">
-      <c r="B43" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="13"/>
-    </row>
-    <row r="44" spans="2:11">
-      <c r="B44" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="13"/>
-    </row>
-    <row r="45" spans="2:11">
-      <c r="B45" s="21"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="13"/>
-    </row>
-    <row r="46" spans="2:11">
-      <c r="B46" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="13"/>
-    </row>
-    <row r="47" spans="2:11">
-      <c r="B47" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="13"/>
-    </row>
-    <row r="48" spans="2:11">
-      <c r="B48" s="22" t="s">
+      <c r="B41" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="18"/>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" t="s">
-        <v>121</v>
-      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2545,168 +2814,164 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K128"/>
+  <dimension ref="A1:N128"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B129" sqref="B129"/>
+      <selection activeCell="U60" sqref="U60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:14">
       <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:14">
       <c r="B4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="B5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="B6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="B35" s="11" t="s">
+    <row r="29" spans="1:2">
+      <c r="B29" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="B36" t="s">
+    <row r="30" spans="1:2">
+      <c r="B30" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="B37" t="s">
+    <row r="31" spans="1:2">
+      <c r="B31" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="B38" t="s">
+    <row r="32" spans="1:2">
+      <c r="B32" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="B39" t="s">
+    <row r="33" spans="2:3">
+      <c r="B33" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="34" spans="2:3">
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="C37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="C38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="C39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="B41" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="C42" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="C43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="C44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="C45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="B46" t="s">
         <v>53</v>
       </c>
     </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="C46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="C47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="C48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="C49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="C50" t="s">
+        <v>95</v>
+      </c>
+    </row>
     <row r="51" spans="1:11">
-      <c r="B51" s="11" t="s">
-        <v>90</v>
+      <c r="C51" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="C52" t="s">
-        <v>91</v>
+      <c r="B52" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="C53" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="C54" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="C55" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="C56" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="C57" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="B58" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="B59" t="s">
+      <c r="B53" t="s">
         <v>98</v>
       </c>
     </row>

--- a/Specification/企画書.xlsx
+++ b/Specification/企画書.xlsx
@@ -10,14 +10,17 @@
     <sheet name="目次" sheetId="1" r:id="rId1"/>
     <sheet name="ゲーム概要" sheetId="2" r:id="rId2"/>
     <sheet name="戦闘システム" sheetId="3" r:id="rId3"/>
-    <sheet name="Ｍｏｃｋ版仕様" sheetId="4" r:id="rId4"/>
+    <sheet name="ゲーム全体の流れ" sheetId="5" r:id="rId4"/>
+    <sheet name="イベント発生タイミング" sheetId="6" r:id="rId5"/>
+    <sheet name="イベント詳細" sheetId="7" r:id="rId6"/>
+    <sheet name="Ｍｏｃｋ版仕様" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="291">
   <si>
     <t>シートページ</t>
     <phoneticPr fontId="1"/>
@@ -109,45 +112,6 @@
     <t>ゲーム内容</t>
   </si>
   <si>
-    <t>主人公と３人の仲間を引き連れ、物語の終着に待つ魔王を打倒す</t>
-  </si>
-  <si>
-    <t>のが建前</t>
-  </si>
-  <si>
-    <t>最初の仲間選択で実は魔王が紛れている</t>
-  </si>
-  <si>
-    <t>魔王を倒す（？）べく「伝説のお守り」を世界にある７つの国の王家から賜る</t>
-  </si>
-  <si>
-    <t>その道中には、暗い洞窟、そびえ立つ塔、魔物に支配された廃墟、地下に眠る迷宮、魔王の住まう天空城</t>
-  </si>
-  <si>
-    <t>の５つのダンジョンを攻略しなけらばならない</t>
-  </si>
-  <si>
-    <t>最後の最後で魔王を倒すか、許すかの選択肢あり</t>
-  </si>
-  <si>
-    <t>倒すとHappyEnd(?),許すとTrueEnd</t>
-  </si>
-  <si>
-    <t>「許す」の選択肢を選ぶためには道中での行動がカギを握る</t>
-  </si>
-  <si>
-    <t>魔物と人を助けた数が総計50体＋ボス全てに止めを刺していないことが条件</t>
-  </si>
-  <si>
-    <t>魔王を許した場合、２週目で特殊ダンジョンが出現</t>
-  </si>
-  <si>
-    <t>ボスの討伐ターン数アタック（武器防具のおまけあり）や魔王と戦える（報酬なし）</t>
-  </si>
-  <si>
-    <t>クリアタイムによって２週目に武器防具追加（バイオハザードのロケラン的な）</t>
-  </si>
-  <si>
     <t>アーリア城の城下街に生まれた勇者は今年で１６歳</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -159,15 +123,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>シンボルエンカウントでターン制バトル</t>
-  </si>
-  <si>
-    <t>じっくり考えさせるバトルにしたい</t>
-  </si>
-  <si>
-    <t>バトルへの遷移はシームレス（FF13っぽいもの）</t>
-  </si>
-  <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
       <t>ガイヨウ</t>
@@ -194,12 +149,6 @@
     <t>・戦う（装備している武器による戦闘）</t>
   </si>
   <si>
-    <t>・防御（装備されている防御力ｘ１０）</t>
-  </si>
-  <si>
-    <t>・魔法（属性効果のある攻撃、もしくはサポート）</t>
-  </si>
-  <si>
     <t>・特技（魔法が使えないキャラの特殊攻撃方法、ドラクエ６的なもの）</t>
   </si>
   <si>
@@ -289,91 +238,16 @@
     <t>キャラパラメータ</t>
   </si>
   <si>
-    <t>ATK（攻撃能力。物理ﾀﾞﾒｰｼﾞ計算に使用）</t>
-  </si>
-  <si>
-    <t>DEF（防御能力。物理ﾀﾞﾒｰｼﾞ計算に使用）</t>
-  </si>
-  <si>
-    <t>MATK（魔法攻撃能力。魔法ﾀﾞﾒｰｼﾞ計算に使用）</t>
-  </si>
-  <si>
-    <t>MDEF（魔法防御能力。魔法ﾀﾞﾒｰｼﾞ計算に使用）</t>
-  </si>
-  <si>
-    <t>STR（体力。HPの増加率（万分率）に使用）</t>
-  </si>
-  <si>
-    <t>HIT（命中（万分率）能力。攻撃の当たり判定に使用）</t>
-  </si>
-  <si>
-    <t>SPD（行動速度能力。行動順番、逃走成功率（万分率）に使用）</t>
-  </si>
-  <si>
-    <t>LUK（運能力。命中率（万分率）、バッドステータス付着率（万分率）、逃走成功率（万分率）に使用）</t>
-  </si>
-  <si>
     <t>技パラメータ</t>
   </si>
   <si>
-    <t>ATK（攻撃能力。たたかうorｽｷﾙの威力）</t>
-  </si>
-  <si>
-    <t>BAD (状態異付与率（万分率）。キャラのLUKに左右される)</t>
-  </si>
-  <si>
-    <t>HIT_Large (攻撃範囲。単体、複数、全体)</t>
-  </si>
-  <si>
-    <t>SKILL_TYPE (スキルのタイプ。攻撃なのか、防御なのか、スキルなのか)</t>
-  </si>
-  <si>
-    <t>Attribute (属性。火、水、風、土、雷、光、闇、無)</t>
-  </si>
-  <si>
     <t>武器パラメータ</t>
   </si>
   <si>
-    <t>ATK (</t>
-  </si>
-  <si>
-    <t>MATK(杖、ダガーのみ。</t>
-  </si>
-  <si>
-    <t>HIT（</t>
-  </si>
-  <si>
-    <t>Limit(装備レベル。</t>
-  </si>
-  <si>
     <t>防具パラメータ</t>
   </si>
   <si>
-    <t>DEF（</t>
-  </si>
-  <si>
-    <t>MDEF(</t>
-  </si>
-  <si>
-    <t>STR（</t>
-  </si>
-  <si>
-    <t>SPD (ブーツのみ。</t>
-  </si>
-  <si>
     <t>装飾品パラメータ</t>
-  </si>
-  <si>
-    <t>ATK（</t>
-  </si>
-  <si>
-    <t>MATK(</t>
-  </si>
-  <si>
-    <t>SPD（</t>
-  </si>
-  <si>
-    <t>LUK（</t>
   </si>
   <si>
     <t>キャライメージ</t>
@@ -742,6 +616,1741 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム全体の流れ</t>
+    <rPh sb="3" eb="5">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロローグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主人公の名称の設定もここで行う</t>
+    <rPh sb="0" eb="3">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第一章</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>イッショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔物の巣窟を駆逐せよ</t>
+    <rPh sb="0" eb="2">
+      <t>マモノ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウクツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>クチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チュートリアルも兼ねた比較的簡単なダンジョンを攻略する</t>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ヒカクテキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウリャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の数も少なめに設定</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームの内容説明</t>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この章の遷移</t>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第二章</t>
+    <rPh sb="0" eb="3">
+      <t>ダイニショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>呪われた神殿を救え</t>
+    <rPh sb="0" eb="1">
+      <t>ノロ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シンデン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本格的に冒険をしてもらう</t>
+    <rPh sb="0" eb="3">
+      <t>ホンカクテキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ボウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本は一緒だが、少しだけ難易度を上げる</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>街Ａ　→　フィールド　→　街Ｂ　→　フィールド　→　街Ｃ　→　</t>
+    <rPh sb="0" eb="1">
+      <t>マチ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>マチ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>マチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>塔のダンジョン(街Ｃの中にある)　→　街Ｃ　→　フィールド　→　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夢の中イメージ</t>
+    <rPh sb="0" eb="1">
+      <t>ユメ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>街Ａイメージ</t>
+    <rPh sb="0" eb="1">
+      <t>マチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第一章フィールドイメージ</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>イッショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>洞窟イメージ</t>
+    <rPh sb="0" eb="2">
+      <t>ドウクツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第一章目標</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>イッ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第一章概要</t>
+    <rPh sb="3" eb="5">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第一章遷移</t>
+    <rPh sb="3" eb="5">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロローグ概要</t>
+    <rPh sb="5" eb="7">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロローグ目標</t>
+    <rPh sb="5" eb="7">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冒険の準備</t>
+    <rPh sb="0" eb="2">
+      <t>ボウケン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム全体の流れ</t>
+    <rPh sb="3" eb="5">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第二章目標</t>
+    <rPh sb="0" eb="3">
+      <t>ダイニショウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第二章概要</t>
+    <rPh sb="0" eb="3">
+      <t>ダイニショウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第二章遷移</t>
+    <rPh sb="0" eb="3">
+      <t>ダイニショウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難易度は敵の強さで調整</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダンジョンは二つあるのでそこまで複雑にしない</t>
+    <rPh sb="6" eb="7">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>フクザツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第三章</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第三章目標</t>
+    <rPh sb="3" eb="5">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第三章概要</t>
+    <rPh sb="3" eb="5">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第三章遷移</t>
+    <rPh sb="3" eb="5">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔王征伐</t>
+    <rPh sb="0" eb="2">
+      <t>マオウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイバツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最後の章なので少しだけ敵を強くする</t>
+    <rPh sb="0" eb="2">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダンジョンも少し長めに設定</t>
+    <rPh sb="6" eb="7">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔王の強さは周回毎で強くなるようにする</t>
+    <rPh sb="0" eb="2">
+      <t>マオウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウカイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>街Ｃ　→　フィールド　→　街Ｄ　→　フィールド　→　山のダンジョン　→</t>
+    <rPh sb="0" eb="1">
+      <t>マチ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>マチ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強制遷移</t>
+  </si>
+  <si>
+    <t>夢の中(仮)　⇒　街Ａ</t>
+    <rPh sb="0" eb="1">
+      <t>ユメ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>街Ａ　→　フィールド　→　洞窟のダンジョン(A)　→　ボス　⇒　街Ａ</t>
+    <rPh sb="0" eb="1">
+      <t>マチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ドウクツ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>マチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神殿のダンジョン　→　ボス　⇒　街Ｃ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィールド　→　魔王城　→　ボス　⇒　Ending</t>
+    <rPh sb="8" eb="10">
+      <t>マオウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィールド　→　街Ｅ　→　フィールド　→　洞窟ダンジョン(B)　→</t>
+    <rPh sb="8" eb="9">
+      <t>マチ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ドウクツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その替わりに敵から獲得できる経験値とお金を増量</t>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクトク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カネ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ゾウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出来れば戦闘はウェイトとアクティブ選べるようにしたい</t>
+    <rPh sb="0" eb="2">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バトルにおけるウェイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターン制バトルのように</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分の順番が来たら全ての状態が停止する</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>但し、アニメーションはそのまま</t>
+    <rPh sb="0" eb="1">
+      <t>タダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バトルにおけるアクティブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分の順番が来ても全ての状態は</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動き続ける</t>
+    <rPh sb="0" eb="1">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>但し、「逃げる」判定中は停止する</t>
+    <rPh sb="0" eb="1">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ニ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バトルへの移行はシームレスに行う（FF13っぽいもの）</t>
+    <rPh sb="5" eb="7">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シンボルエンカウントでＦＦ６のようなＡＴＢによる戦闘</t>
+    <rPh sb="24" eb="26">
+      <t>セントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・防御（使用したターン、現在の防御力ｘ１０に防御力が上昇する）</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ボウギョリョク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジョウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・魔法（属性効果のある攻撃、もしくはサポート）　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主人公のみ使用可能</t>
+    <rPh sb="0" eb="3">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵情報</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ATK</t>
+  </si>
+  <si>
+    <t>ATK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>DEF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MATK</t>
+  </si>
+  <si>
+    <t>MATK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MDEF</t>
+  </si>
+  <si>
+    <t>MDEF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>STR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HIT</t>
+  </si>
+  <si>
+    <t>HIT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>SPD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LUK</t>
+  </si>
+  <si>
+    <t>LUK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABNOR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RANGE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TYPE </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ATTR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ATK </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装備レベル</t>
+  </si>
+  <si>
+    <t>杖、ダガーのみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃能力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物理ﾀﾞﾒｰｼﾞ計算に使用</t>
+  </si>
+  <si>
+    <t>物理ﾀﾞﾒｰｼﾞ計算に使用</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防御能力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔法攻撃能力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔法ﾀﾞﾒｰｼﾞ計算に使用</t>
+  </si>
+  <si>
+    <t>魔法防御能力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HPの増加率万分率に使用</t>
+  </si>
+  <si>
+    <t>攻撃の当たり判定に使用</t>
+  </si>
+  <si>
+    <t>命中能力</t>
+    <rPh sb="2" eb="4">
+      <t>ノウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行動速度能力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行動順番、逃走成功率万分率に使用</t>
+  </si>
+  <si>
+    <t>運能力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>命中率万分率、バッドステータス付着率万分率、逃走成功率万分率に使用</t>
+  </si>
+  <si>
+    <t>たたかうorｽｷﾙの威力</t>
+  </si>
+  <si>
+    <t>状態異付与能力</t>
+    <rPh sb="5" eb="7">
+      <t>ノウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラのLUKに左右される</t>
+  </si>
+  <si>
+    <t>攻撃範囲</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単体、複数、全体</t>
+  </si>
+  <si>
+    <t>スキルのタイプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃なのか、防御なのか、スキルなのか</t>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火、水、風、土、雷、光、闇、無</t>
+  </si>
+  <si>
+    <t>必要最低レベル</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サイテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ＬＩＭＩＴ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>剣、長刀のみ</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カタナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器自体の命中能力</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>メイチュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ノウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SPD </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブーツのみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローブのみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LIMIT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鎧のみ</t>
+    <rPh sb="0" eb="1">
+      <t>ヨロイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽鎧のみ</t>
+    <rPh sb="0" eb="1">
+      <t>カル</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヨロイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装備レベル</t>
+    <rPh sb="0" eb="2">
+      <t>ソウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LIMIT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果は装備レベルによって幅を持たせてランダムにする</t>
+    <rPh sb="0" eb="2">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラは「魔法」か「特技」のどちらか一方のみを使用できる。両方は所持出来ない</t>
+    <rPh sb="23" eb="25">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ショジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遷移で使用される矢印の意味は以下の通り</t>
+    <rPh sb="0" eb="2">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 「⇒」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 「→」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>任意遷移</t>
+  </si>
+  <si>
+    <t>全体的な見直し</t>
+    <rPh sb="0" eb="3">
+      <t>ゼンタイテキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ミナオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム全体の流れ作成</t>
+    <rPh sb="3" eb="5">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント発生タイミング作成</t>
+    <rPh sb="4" eb="6">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バトル発生タイミング</t>
+    <rPh sb="3" eb="5">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名称は「ゲーム全体の流れ」に使用されている名称に準拠する</t>
+    <rPh sb="0" eb="2">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジュンキョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィールド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>街Ｃ</t>
+    <rPh sb="0" eb="1">
+      <t>マチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各種ダンジョン内部</t>
+    <rPh sb="0" eb="2">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナイブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑魚のみ</t>
+    <rPh sb="0" eb="2">
+      <t>ザコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特殊のみ</t>
+    <rPh sb="0" eb="2">
+      <t>トクシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑魚</t>
+    <rPh sb="0" eb="2">
+      <t>ザコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強雑魚</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特殊</t>
+  </si>
+  <si>
+    <t>フィールドより少し強い</t>
+    <rPh sb="7" eb="8">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最弱</t>
+    <rPh sb="0" eb="1">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ジャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑魚の1.2倍程度の強さ</t>
+    <rPh sb="0" eb="2">
+      <t>ザコ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中ボス、大ボスもこの分類</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主人公の影と戦闘させる</t>
+    <rPh sb="0" eb="3">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カゲ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各種イベント発生タイミング</t>
+    <rPh sb="0" eb="2">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>街Ａ</t>
+    <rPh sb="0" eb="1">
+      <t>マチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会話イベント</t>
+    <rPh sb="0" eb="2">
+      <t>カイワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仲間設定イベント</t>
+    <rPh sb="0" eb="2">
+      <t>ナカマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦闘イベント</t>
+    <rPh sb="0" eb="2">
+      <t>セントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>塔のダンジョン</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>街Ｅ</t>
+    <rPh sb="0" eb="1">
+      <t>マチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔王およびルート確定イベント</t>
+    <rPh sb="0" eb="2">
+      <t>マオウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロローグ終了後</t>
+    <rPh sb="5" eb="8">
+      <t>シュウリョウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>塔のダンジョン攻略後</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウリャク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ノチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>街へ突入直後</t>
+    <rPh sb="0" eb="1">
+      <t>マチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トツニュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チョクゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>街から出る直前</t>
+    <rPh sb="0" eb="1">
+      <t>マチ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チョクゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>街Ｂ</t>
+    <rPh sb="0" eb="1">
+      <t>マチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>街Ｄ</t>
+    <rPh sb="0" eb="1">
+      <t>マチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>洞窟のダンジョン(A)</t>
+    <rPh sb="0" eb="2">
+      <t>ドウクツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>洞窟のダンジョン(B)</t>
+    <rPh sb="0" eb="2">
+      <t>ドウクツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神殿のダンジョン</t>
+    <rPh sb="0" eb="2">
+      <t>シンデン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神殿のダンジョン攻略後</t>
+    <rPh sb="0" eb="2">
+      <t>シンデン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウリャク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ノチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>洞窟のダンジョン(A)攻略後</t>
+    <rPh sb="0" eb="2">
+      <t>ドウクツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウリャク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山のダンジョン</t>
+    <rPh sb="0" eb="1">
+      <t>ヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山のダンジョン攻略後</t>
+    <rPh sb="0" eb="1">
+      <t>ヤマ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウリャク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ノチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔王城</t>
+    <rPh sb="0" eb="2">
+      <t>マオウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名称一覧</t>
+    <rPh sb="0" eb="2">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント詳細作成</t>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>倒すとHappyEnd(?),倒さないとTrueEnd</t>
+    <rPh sb="15" eb="16">
+      <t>タオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しかし「倒さない」を選択するためには必要な条件が!!</t>
+    <rPh sb="4" eb="5">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仲間と交流し、好感度を上げていくと…</t>
+    <rPh sb="0" eb="2">
+      <t>ナカマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウリュウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>コウカンド</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二週目以降もまだまだ遊べる「強くてニューゲーム」機能搭載！</t>
+    <rPh sb="0" eb="2">
+      <t>ニシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アソ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>トウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>周回を重ねるごとに強くなっていく魔物たち…そして、倒されたボスたちの慟哭がダンジョンの深奥から響き渡る…</t>
+    <rPh sb="0" eb="2">
+      <t>シュウカイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>マモノ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ドウコク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>シンオウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ヒビ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ワタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボスの討伐ターン数アタック（武器防具のおまけあり）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリアタイムによって次周に武器防具追加（バイオハザードのロケラン的な）</t>
+    <rPh sb="10" eb="11">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>などなど、追加要素満載！</t>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>マンサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しかも何だか親密な関係にどんどん発展！！？</t>
+    <rPh sb="3" eb="4">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シンミツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハッテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その道中には、暗い洞窟、天への塔、魔物に支配された大神殿、神の宿る霊峰</t>
+    <rPh sb="12" eb="13">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シンデン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カミ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ヤド</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>レイホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>の４つの試練を乗り越えなければならない</t>
+    <rPh sb="4" eb="6">
+      <t>シレン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主人公と2人の仲間を引き連れ、物語の終着に待つ魔王を打倒する本格ＲＰＧ</t>
+    <rPh sb="30" eb="32">
+      <t>ホンカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>果たして、勇者の運命や如何に…！</t>
+    <rPh sb="0" eb="1">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ユウシャ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ウンメイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>と、思いきや</t>
+    <rPh sb="2" eb="3">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔王を倒すべく「伝説の聖櫃」を世界にある７つの国の王家から賜る旅に出る主人公</t>
+    <rPh sb="11" eb="13">
+      <t>セイヒツ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>タビ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>シュジンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そして、その先に待つのは魔を統べる王の居る城</t>
+    <rPh sb="6" eb="7">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>シロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実は、最初の仲間選択で魔王が紛れている!?</t>
+    <rPh sb="0" eb="1">
+      <t>ジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主人公とヒロイン達（魔王もいるよ！）のハチャメチャでムチャクチャな冒険譚が爆誕！</t>
+    <rPh sb="0" eb="3">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>マオウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ボウケン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>タン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>バク</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>タン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最後の最後で魔王を「倒す」か「倒さない」かの選択肢を選ぶことに</t>
+    <rPh sb="15" eb="16">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔王を倒さなかった場合、次週に「隠しダンジョン」が出現！！</t>
+    <rPh sb="3" eb="4">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔王よりも更に強大な力に、主人公たちは打ち勝てるのか…</t>
+    <rPh sb="0" eb="2">
+      <t>マオウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サラ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キョウダイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント発生タイミング</t>
+    <rPh sb="4" eb="6">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント詳細</t>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -784,7 +2393,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -797,8 +2406,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1014,10 +2629,151 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="double">
         <color indexed="64"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1032,7 +2788,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1126,10 +2882,97 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1307,25 +3150,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>253628</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>532086</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:rowOff>76198</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3077" name="Picture 5" descr="http://livedoor.blogimg.jp/charamake/imgs/f/6/f6f02b60.jpg"/>
+        <xdr:cNvPr id="4097" name="Picture 1" descr="http://wp.gazouko.jp/files/127/4.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1333,8 +3176,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8277225" y="4333876"/>
-          <a:ext cx="2263403" cy="3257550"/>
+          <a:off x="8382000" y="4343399"/>
+          <a:ext cx="1751286" cy="3276599"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1433,13 +3276,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>370903</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1473,13 +3316,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>23813</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1513,13 +3356,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>17827</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1553,13 +3396,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1586,13 +3429,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1633,13 +3476,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1667,6 +3510,333 @@
         <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152398</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2051" name="Picture 3" descr="http://blogimg.goo.ne.jp/user_image/6e/1c/3ae827c8d026b779fd93fa840d4acd00.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6972299" y="914400"/>
+          <a:ext cx="2133599" cy="1866900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28218</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2052" name="Picture 4" descr="http://articleimage.nicoblomaga.jp/image/12/2013/3/3/3338c7e13490994f5134632154498c812bf534d71368502176.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9725026" y="894993"/>
+          <a:ext cx="2705100" cy="1800582"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="下矢印 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6248400" y="3343275"/>
+          <a:ext cx="1809750" cy="1695450"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>353339</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2054" name="Picture 6" descr="http://sc-mizuno-cs.img.jugem.jp/20130531_575750.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7467601" y="5734050"/>
+          <a:ext cx="2525038" cy="1419225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2055" name="Picture 7" descr="http://blog-imgs-29.fc2.com/m/a/r/maru0maruo/capture_05312029_0004.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10391776" y="5667375"/>
+          <a:ext cx="2095500" cy="1571625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="下矢印 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6143625" y="9001125"/>
+          <a:ext cx="1809750" cy="1695450"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="下矢印 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5972175" y="14516100"/>
+          <a:ext cx="1809750" cy="1695450"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1957,9 +4127,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1975,10 +4147,10 @@
     <row r="1" spans="1:7">
       <c r="A1" s="26">
         <f ca="1">NOW()</f>
-        <v>41907.998633333336</v>
+        <v>41909.012912384256</v>
       </c>
       <c r="B1" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1991,7 +4163,7 @@
     </row>
     <row r="4" spans="1:7" ht="14.25" thickBot="1">
       <c r="B4" s="2" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -2007,7 +4179,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2022,7 +4194,8 @@
         <v>目次へ</v>
       </c>
       <c r="F6" s="26">
-        <v>41907.998383101854</v>
+        <f ca="1">NOW()</f>
+        <v>41909.012912384256</v>
       </c>
       <c r="G6" s="24"/>
     </row>
@@ -2038,7 +4211,8 @@
         <v>ゲーム概要へ</v>
       </c>
       <c r="F7" s="26">
-        <v>41907.998383101854</v>
+        <f t="shared" ref="F7:F12" ca="1" si="0">NOW()</f>
+        <v>41909.012912384256</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2053,7 +4227,8 @@
         <v>戦闘システムへ</v>
       </c>
       <c r="F8" s="26">
-        <v>41907.998383101854</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>41909.012912384256</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2068,32 +4243,57 @@
         <v>Mock版仕様へ</v>
       </c>
       <c r="F9" s="26">
-        <v>41907.998383101854</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>41909.012912384256</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="C10" s="10">
         <v>5</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="6" t="str">
+        <f>HYPERLINK("#ゲーム全体の流れ!A1",D10&amp;"へ")</f>
+        <v>ゲーム全体の流れへ</v>
+      </c>
+      <c r="F10" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>41909.012912384256</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="C11" s="10">
         <v>6</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E11" s="6" t="str">
+        <f>HYPERLINK("#イベント発生タイミング!A1",D11&amp;"へ")</f>
+        <v>イベント発生タイミングへ</v>
+      </c>
+      <c r="F11" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>41909.012912384256</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="C12" s="10">
         <v>7</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E12" s="6" t="str">
+        <f>HYPERLINK("#イベント詳細!A1",D12&amp;"へ")</f>
+        <v>イベント詳細へ</v>
+      </c>
+      <c r="F12" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>41909.012912384256</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="C13" s="10">
@@ -2121,158 +4321,136 @@
     </row>
     <row r="21" spans="2:5" ht="14.25" thickBot="1">
       <c r="B21" s="11" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="14.25" thickBot="1">
       <c r="C22" s="5" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="C23" s="27">
-        <v>41907.724351851852</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E23" s="7"/>
+      <c r="C23" s="28">
+        <v>41908</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E23" s="1"/>
     </row>
     <row r="24" spans="2:5">
       <c r="C24" s="28"/>
       <c r="D24" s="1" t="s">
-        <v>132</v>
+        <v>227</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="2:5">
       <c r="C25" s="28"/>
       <c r="D25" s="1" t="s">
-        <v>133</v>
+        <v>228</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="2:5" ht="14.25" thickBot="1">
       <c r="C26" s="29"/>
       <c r="D26" s="25" t="s">
-        <v>134</v>
+        <v>267</v>
       </c>
       <c r="E26" s="25"/>
     </row>
-    <row r="27" spans="2:5" ht="15" thickTop="1" thickBot="1">
-      <c r="C27" s="31">
+    <row r="27" spans="2:5" ht="14.25" thickTop="1">
+      <c r="C27" s="58">
         <v>41907.997525925923</v>
       </c>
-      <c r="D27" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="E27" s="32"/>
-    </row>
-    <row r="28" spans="2:5" ht="14.25" thickTop="1">
+      <c r="D27" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="59"/>
+    </row>
+    <row r="28" spans="2:5">
       <c r="C28" s="27"/>
-      <c r="D28" s="7"/>
+      <c r="D28" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="E28" s="7"/>
     </row>
     <row r="29" spans="2:5">
       <c r="C29" s="28"/>
-      <c r="D29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="2:5">
       <c r="C30" s="28"/>
-      <c r="D30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="2:5">
-      <c r="C31" s="28"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="C32" s="28"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="3:5">
-      <c r="C33" s="28"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="3:5">
-      <c r="C34" s="28"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="3:5">
-      <c r="C35" s="28"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="3:5">
-      <c r="C36" s="28"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="3:5">
-      <c r="C37" s="28"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="3:5">
-      <c r="C38" s="28"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="3:5">
-      <c r="C39" s="28"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="3:5">
-      <c r="C40" s="28"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="3:5">
-      <c r="C41" s="28"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="3:5">
-      <c r="C42" s="28"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="3:5">
-      <c r="C43" s="28"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="3:5">
-      <c r="C44" s="28"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="3:5">
-      <c r="C45" s="28"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="3:5">
-      <c r="C46" s="28"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="3:5">
+    <row r="31" spans="2:5" ht="14.25" thickBot="1">
+      <c r="C31" s="29"/>
+      <c r="D31" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="25"/>
+    </row>
+    <row r="32" spans="2:5" ht="14.25" thickTop="1">
+      <c r="C32" s="30"/>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="30"/>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="30"/>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="30"/>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="30"/>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="30"/>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="30"/>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="30"/>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="30"/>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" s="30"/>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="30"/>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" s="30"/>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" s="30"/>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" s="30"/>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" s="30"/>
+    </row>
+    <row r="47" spans="3:3">
       <c r="C47" s="30"/>
     </row>
-    <row r="48" spans="3:5">
+    <row r="48" spans="3:3">
       <c r="C48" s="30"/>
     </row>
     <row r="49" spans="3:3">
@@ -2400,51 +4578,6 @@
     </row>
     <row r="90" spans="3:3">
       <c r="C90" s="30"/>
-    </row>
-    <row r="91" spans="3:3">
-      <c r="C91" s="30"/>
-    </row>
-    <row r="92" spans="3:3">
-      <c r="C92" s="30"/>
-    </row>
-    <row r="93" spans="3:3">
-      <c r="C93" s="30"/>
-    </row>
-    <row r="94" spans="3:3">
-      <c r="C94" s="30"/>
-    </row>
-    <row r="95" spans="3:3">
-      <c r="C95" s="30"/>
-    </row>
-    <row r="96" spans="3:3">
-      <c r="C96" s="30"/>
-    </row>
-    <row r="97" spans="3:3">
-      <c r="C97" s="30"/>
-    </row>
-    <row r="98" spans="3:3">
-      <c r="C98" s="30"/>
-    </row>
-    <row r="99" spans="3:3">
-      <c r="C99" s="30"/>
-    </row>
-    <row r="100" spans="3:3">
-      <c r="C100" s="30"/>
-    </row>
-    <row r="101" spans="3:3">
-      <c r="C101" s="30"/>
-    </row>
-    <row r="102" spans="3:3">
-      <c r="C102" s="30"/>
-    </row>
-    <row r="103" spans="3:3">
-      <c r="C103" s="30"/>
-    </row>
-    <row r="104" spans="3:3">
-      <c r="C104" s="30"/>
-    </row>
-    <row r="105" spans="3:3">
-      <c r="C105" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2455,10 +4588,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X41"/>
+  <dimension ref="A1:X52"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16:Q16"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2470,7 +4603,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="I2" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2491,7 +4624,7 @@
     <row r="7" spans="1:17">
       <c r="A7" s="13"/>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -2556,32 +4689,32 @@
     </row>
     <row r="16" spans="1:17">
       <c r="I16" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="P16" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="Q16" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="2:24">
       <c r="M24" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="2:24">
       <c r="M25" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="Q25" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="X25" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="2:24">
@@ -2600,7 +4733,7 @@
     </row>
     <row r="27" spans="2:24">
       <c r="B27" s="19" t="s">
-        <v>17</v>
+        <v>279</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
@@ -2614,7 +4747,7 @@
     </row>
     <row r="28" spans="2:24">
       <c r="B28" s="21" t="s">
-        <v>18</v>
+        <v>282</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -2628,7 +4761,7 @@
     </row>
     <row r="29" spans="2:24">
       <c r="B29" s="21" t="s">
-        <v>19</v>
+        <v>277</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -2642,7 +4775,7 @@
     </row>
     <row r="30" spans="2:24">
       <c r="B30" s="21" t="s">
-        <v>20</v>
+        <v>278</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -2655,9 +4788,7 @@
       <c r="K30" s="13"/>
     </row>
     <row r="31" spans="2:24">
-      <c r="B31" s="21" t="s">
-        <v>21</v>
-      </c>
+      <c r="B31" s="21"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -2670,7 +4801,7 @@
     </row>
     <row r="32" spans="2:24">
       <c r="B32" s="21" t="s">
-        <v>22</v>
+        <v>283</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -2683,7 +4814,9 @@
       <c r="K32" s="13"/>
     </row>
     <row r="33" spans="2:11">
-      <c r="B33" s="21"/>
+      <c r="B33" s="21" t="s">
+        <v>280</v>
+      </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -2695,9 +4828,7 @@
       <c r="K33" s="13"/>
     </row>
     <row r="34" spans="2:11">
-      <c r="B34" s="21" t="s">
-        <v>23</v>
-      </c>
+      <c r="B34" s="21"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -2710,7 +4841,7 @@
     </row>
     <row r="35" spans="2:11">
       <c r="B35" s="21" t="s">
-        <v>24</v>
+        <v>281</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -2724,7 +4855,7 @@
     </row>
     <row r="36" spans="2:11">
       <c r="B36" s="21" t="s">
-        <v>25</v>
+        <v>284</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2738,7 +4869,7 @@
     </row>
     <row r="37" spans="2:11">
       <c r="B37" s="21" t="s">
-        <v>26</v>
+        <v>276</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2751,7 +4882,9 @@
       <c r="K37" s="13"/>
     </row>
     <row r="38" spans="2:11">
-      <c r="B38" s="21"/>
+      <c r="B38" s="21" t="s">
+        <v>285</v>
+      </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -2763,9 +4896,7 @@
       <c r="K38" s="13"/>
     </row>
     <row r="39" spans="2:11">
-      <c r="B39" s="21" t="s">
-        <v>27</v>
-      </c>
+      <c r="B39" s="21"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -2778,7 +4909,7 @@
     </row>
     <row r="40" spans="2:11">
       <c r="B40" s="21" t="s">
-        <v>28</v>
+        <v>286</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2791,18 +4922,168 @@
       <c r="K40" s="13"/>
     </row>
     <row r="41" spans="2:11">
-      <c r="B41" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="18"/>
+      <c r="B41" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="13"/>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="13"/>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="13"/>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" s="21"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="13"/>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="13"/>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="13"/>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="13"/>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="13"/>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="60" t="s">
+        <v>275</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="13"/>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="21"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="13"/>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="13"/>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52" s="61" t="s">
+        <v>288</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2814,384 +5095,837 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N128"/>
+  <dimension ref="A1:N133"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="U60" sqref="U60"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="B3" s="11" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="B4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" t="s">
         <v>32</v>
       </c>
-      <c r="G4" t="s">
-        <v>50</v>
-      </c>
       <c r="M4" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="B5" t="s">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="M5" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="N5" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="B6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="B10" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="B17" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="B18" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="B19" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="B29" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="B30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="B31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="B32" t="s">
-        <v>41</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" t="s">
-        <v>42</v>
+      <c r="B33" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="C36" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="2:3">
-      <c r="C37" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="C38" t="s">
-        <v>47</v>
+      <c r="B37" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="2:3">
-      <c r="C39" t="s">
-        <v>48</v>
+      <c r="B39" s="11" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="C41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="C42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="C43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="C44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="B51" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="C52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="C53" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="C54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="C55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="C56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="C57" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="2:3">
-      <c r="B45" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3">
-      <c r="C46" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3">
-      <c r="C47" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3">
-      <c r="C48" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="C49" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="C50" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="C51" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="B52" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="B53" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" t="s">
+    <row r="58" spans="1:3">
+      <c r="B58" t="s">
         <v>54</v>
       </c>
-      <c r="K64" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11">
-      <c r="B65" s="11" t="s">
+    </row>
+    <row r="59" spans="1:3">
+      <c r="B59" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="2:11">
-      <c r="B66" t="s">
+    <row r="70" spans="1:11">
+      <c r="A70" t="s">
+        <v>36</v>
+      </c>
+      <c r="K70" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="B71" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="B72" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="17"/>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="B73" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D73" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="B74" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="17"/>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="B75" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D75" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="B76" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D76" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="18"/>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="B77" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D77" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="18"/>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="B78" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D78" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="18"/>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="B79" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D79" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="18"/>
+    </row>
+    <row r="81" spans="2:11">
+      <c r="K81" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11">
+      <c r="B83" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11">
+      <c r="B84" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D84" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="17"/>
+    </row>
+    <row r="85" spans="2:11">
+      <c r="B85" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="E85" s="20"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="17"/>
+    </row>
+    <row r="86" spans="2:11">
+      <c r="B86" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D86" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+    </row>
+    <row r="87" spans="2:11">
+      <c r="B87" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D87" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="18"/>
+    </row>
+    <row r="88" spans="2:11">
+      <c r="B88" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D88" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="18"/>
+    </row>
+    <row r="89" spans="2:11">
+      <c r="B89" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D89" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="18"/>
+    </row>
+    <row r="97" spans="2:11">
+      <c r="K97" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11">
+      <c r="B98" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11">
+      <c r="B99" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D99" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="E99" s="20"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="20"/>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="17"/>
+    </row>
+    <row r="100" spans="2:11">
+      <c r="B100" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D100" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+    </row>
+    <row r="101" spans="2:11">
+      <c r="B101" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D101" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="18"/>
+    </row>
+    <row r="102" spans="2:11">
+      <c r="B102" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="C102" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="D102" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="18"/>
+    </row>
+    <row r="113" spans="2:11">
+      <c r="K113" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="114" spans="2:11">
+      <c r="B114" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="115" spans="2:11">
+      <c r="B115" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D115" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="E115" s="20"/>
+      <c r="F115" s="20"/>
+      <c r="G115" s="20"/>
+      <c r="H115" s="20"/>
+      <c r="I115" s="20"/>
+      <c r="J115" s="17"/>
+    </row>
+    <row r="116" spans="2:11">
+      <c r="B116" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D116" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="E116" s="15"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="15"/>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+    </row>
+    <row r="117" spans="2:11">
+      <c r="B117" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="18"/>
+    </row>
+    <row r="118" spans="2:11">
+      <c r="B118" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="12"/>
+      <c r="J118" s="18"/>
+    </row>
+    <row r="119" spans="2:11">
+      <c r="B119" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D119" s="57" t="s">
+        <v>218</v>
+      </c>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="15"/>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="16"/>
+    </row>
+    <row r="123" spans="2:11">
+      <c r="K123" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="124" spans="2:11">
+      <c r="B124" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="125" spans="2:11">
+      <c r="B125" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+    </row>
+    <row r="126" spans="2:11">
+      <c r="B126" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+    </row>
+    <row r="127" spans="2:11">
+      <c r="B127" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+    </row>
+    <row r="128" spans="2:11">
+      <c r="B128" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+    </row>
+    <row r="129" spans="2:10">
+      <c r="B129" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D129" s="2"/>
+      <c r="E129" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="67" spans="2:11">
-      <c r="B67" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="68" spans="2:11">
-      <c r="B68" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11">
-      <c r="B69" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11">
-      <c r="B70" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11">
-      <c r="B71" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11">
-      <c r="B72" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11">
-      <c r="B73" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="75" spans="2:11">
-      <c r="K75" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11">
-      <c r="B77" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="78" spans="2:11">
-      <c r="B78" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="79" spans="2:11">
-      <c r="B79" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="80" spans="2:11">
-      <c r="B80" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="81" spans="2:11">
-      <c r="B81" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="82" spans="2:11">
-      <c r="B82" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="83" spans="2:11">
-      <c r="B83" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="91" spans="2:11">
-      <c r="K91" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="92" spans="2:11">
-      <c r="B92" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="93" spans="2:11">
-      <c r="B93" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="94" spans="2:11">
-      <c r="B94" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="95" spans="2:11">
-      <c r="B95" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="96" spans="2:11">
-      <c r="B96" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="107" spans="2:11">
-      <c r="K107" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="108" spans="2:11">
-      <c r="B108" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="109" spans="2:11">
-      <c r="B109" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="110" spans="2:11">
-      <c r="B110" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="111" spans="2:11">
-      <c r="B111" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="112" spans="2:11">
-      <c r="B112" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="113" spans="2:11">
-      <c r="B113" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="117" spans="2:11">
-      <c r="K117" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="118" spans="2:11">
-      <c r="B118" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="119" spans="2:11">
-      <c r="B119" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="120" spans="2:11">
-      <c r="B120" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="121" spans="2:11">
-      <c r="B121" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="122" spans="2:11">
-      <c r="B122" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="123" spans="2:11">
-      <c r="B123" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="124" spans="2:11">
-      <c r="B124" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="125" spans="2:11">
-      <c r="B125" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="126" spans="2:11">
-      <c r="B126" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="127" spans="2:11">
-      <c r="B127" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="128" spans="2:11">
-      <c r="B128" t="s">
-        <v>99</v>
-      </c>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+    </row>
+    <row r="130" spans="2:10">
+      <c r="B130" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2"/>
+    </row>
+    <row r="131" spans="2:10">
+      <c r="B131" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+    </row>
+    <row r="132" spans="2:10">
+      <c r="B132" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+    </row>
+    <row r="133" spans="2:10">
+      <c r="B133" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3201,6 +5935,2157 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W144"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="5" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19">
+      <c r="D1" s="53"/>
+    </row>
+    <row r="2" spans="2:19">
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19">
+      <c r="B4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19">
+      <c r="B5" s="54" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19">
+      <c r="B6" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="14.25" thickBot="1"/>
+    <row r="11" spans="2:19">
+      <c r="B11" s="48"/>
+      <c r="C11" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="38"/>
+    </row>
+    <row r="12" spans="2:19">
+      <c r="B12" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="41"/>
+      <c r="D12" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="40"/>
+    </row>
+    <row r="13" spans="2:19">
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="40"/>
+    </row>
+    <row r="14" spans="2:19">
+      <c r="B14" s="41"/>
+      <c r="C14" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="40"/>
+    </row>
+    <row r="15" spans="2:19">
+      <c r="B15" s="41"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="40"/>
+    </row>
+    <row r="16" spans="2:19">
+      <c r="B16" s="41"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="40"/>
+    </row>
+    <row r="17" spans="2:19">
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="40"/>
+    </row>
+    <row r="18" spans="2:19">
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="40"/>
+    </row>
+    <row r="19" spans="2:19">
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="40"/>
+    </row>
+    <row r="20" spans="2:19">
+      <c r="B20" s="41"/>
+      <c r="C20" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="40"/>
+    </row>
+    <row r="21" spans="2:19">
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="40"/>
+    </row>
+    <row r="22" spans="2:19">
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="40"/>
+    </row>
+    <row r="23" spans="2:19">
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="40"/>
+    </row>
+    <row r="24" spans="2:19">
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="40"/>
+    </row>
+    <row r="25" spans="2:19" ht="14.25" thickBot="1">
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="44"/>
+    </row>
+    <row r="40" spans="2:23" ht="14.25" thickBot="1">
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="2:23">
+      <c r="B41" s="49"/>
+      <c r="C41" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="37"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="37"/>
+      <c r="W41" s="38"/>
+    </row>
+    <row r="42" spans="2:23">
+      <c r="B42" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="40"/>
+    </row>
+    <row r="43" spans="2:23">
+      <c r="B43" s="46"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="40"/>
+    </row>
+    <row r="44" spans="2:23">
+      <c r="B44" s="46"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="40"/>
+    </row>
+    <row r="45" spans="2:23">
+      <c r="B45" s="46"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="40"/>
+    </row>
+    <row r="46" spans="2:23">
+      <c r="B46" s="46"/>
+      <c r="C46" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="40"/>
+    </row>
+    <row r="47" spans="2:23">
+      <c r="B47" s="46"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="40"/>
+    </row>
+    <row r="48" spans="2:23">
+      <c r="B48" s="46"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="40"/>
+    </row>
+    <row r="49" spans="2:23">
+      <c r="B49" s="46"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="40"/>
+    </row>
+    <row r="50" spans="2:23">
+      <c r="B50" s="46"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="40"/>
+    </row>
+    <row r="51" spans="2:23">
+      <c r="B51" s="46"/>
+      <c r="C51" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="40"/>
+    </row>
+    <row r="52" spans="2:23">
+      <c r="B52" s="46"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="40"/>
+    </row>
+    <row r="53" spans="2:23">
+      <c r="B53" s="46"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="40"/>
+    </row>
+    <row r="54" spans="2:23">
+      <c r="B54" s="46"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="40"/>
+    </row>
+    <row r="55" spans="2:23">
+      <c r="B55" s="46"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="40"/>
+    </row>
+    <row r="56" spans="2:23">
+      <c r="B56" s="46"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="40"/>
+    </row>
+    <row r="57" spans="2:23">
+      <c r="B57" s="46"/>
+      <c r="C57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="40"/>
+    </row>
+    <row r="58" spans="2:23" ht="14.25" thickBot="1">
+      <c r="B58" s="47"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="43"/>
+      <c r="M58" s="43"/>
+      <c r="N58" s="43"/>
+      <c r="O58" s="43"/>
+      <c r="P58" s="43"/>
+      <c r="Q58" s="43"/>
+      <c r="R58" s="43"/>
+      <c r="S58" s="43"/>
+      <c r="T58" s="43"/>
+      <c r="U58" s="43"/>
+      <c r="V58" s="43"/>
+      <c r="W58" s="44"/>
+    </row>
+    <row r="60" spans="2:23">
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+    </row>
+    <row r="61" spans="2:23">
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+    </row>
+    <row r="62" spans="2:23">
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+    </row>
+    <row r="63" spans="2:23">
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+    </row>
+    <row r="64" spans="2:23">
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+    </row>
+    <row r="65" spans="2:23">
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+    </row>
+    <row r="70" spans="2:23">
+      <c r="J70" s="2"/>
+    </row>
+    <row r="71" spans="2:23" ht="14.25" thickBot="1">
+      <c r="J71" s="2"/>
+    </row>
+    <row r="72" spans="2:23">
+      <c r="B72" s="48"/>
+      <c r="C72" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="D72" s="37"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="37"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="38"/>
+      <c r="J72" s="37"/>
+      <c r="K72" s="37"/>
+      <c r="L72" s="37"/>
+      <c r="M72" s="37"/>
+      <c r="N72" s="37"/>
+      <c r="O72" s="37"/>
+      <c r="P72" s="37"/>
+      <c r="Q72" s="37"/>
+      <c r="R72" s="37"/>
+      <c r="S72" s="37"/>
+      <c r="T72" s="37"/>
+      <c r="U72" s="37"/>
+      <c r="V72" s="37"/>
+      <c r="W72" s="38"/>
+    </row>
+    <row r="73" spans="2:23">
+      <c r="B73" s="41"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="40"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="40"/>
+    </row>
+    <row r="74" spans="2:23">
+      <c r="B74" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C74" s="41"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="40"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="40"/>
+    </row>
+    <row r="75" spans="2:23">
+      <c r="B75" s="41"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="40"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="40"/>
+    </row>
+    <row r="76" spans="2:23">
+      <c r="B76" s="41"/>
+      <c r="C76" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="40"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="40"/>
+    </row>
+    <row r="77" spans="2:23">
+      <c r="B77" s="41"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
+      <c r="U77" s="2"/>
+      <c r="V77" s="2"/>
+      <c r="W77" s="40"/>
+    </row>
+    <row r="78" spans="2:23">
+      <c r="B78" s="41"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="40"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="40"/>
+    </row>
+    <row r="79" spans="2:23">
+      <c r="B79" s="41"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="40"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2"/>
+      <c r="V79" s="2"/>
+      <c r="W79" s="40"/>
+    </row>
+    <row r="80" spans="2:23">
+      <c r="B80" s="41"/>
+      <c r="C80" s="41"/>
+      <c r="D80" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="40"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+      <c r="U80" s="2"/>
+      <c r="V80" s="2"/>
+      <c r="W80" s="40"/>
+    </row>
+    <row r="81" spans="2:23">
+      <c r="B81" s="41"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="40"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="2"/>
+      <c r="S81" s="2"/>
+      <c r="T81" s="2"/>
+      <c r="U81" s="2"/>
+      <c r="V81" s="2"/>
+      <c r="W81" s="40"/>
+    </row>
+    <row r="82" spans="2:23">
+      <c r="B82" s="41"/>
+      <c r="C82" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="40"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2"/>
+      <c r="V82" s="2"/>
+      <c r="W82" s="40"/>
+    </row>
+    <row r="83" spans="2:23">
+      <c r="B83" s="41"/>
+      <c r="C83" s="41"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="40"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="40"/>
+    </row>
+    <row r="84" spans="2:23">
+      <c r="B84" s="41"/>
+      <c r="C84" s="41"/>
+      <c r="D84" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="40"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
+      <c r="U84" s="2"/>
+      <c r="V84" s="2"/>
+      <c r="W84" s="40"/>
+    </row>
+    <row r="85" spans="2:23">
+      <c r="B85" s="41"/>
+      <c r="C85" s="41"/>
+      <c r="D85" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="40"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="2"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="2"/>
+      <c r="U85" s="2"/>
+      <c r="V85" s="2"/>
+      <c r="W85" s="40"/>
+    </row>
+    <row r="86" spans="2:23">
+      <c r="B86" s="41"/>
+      <c r="C86" s="41"/>
+      <c r="D86" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2"/>
+      <c r="S86" s="2"/>
+      <c r="T86" s="2"/>
+      <c r="U86" s="2"/>
+      <c r="V86" s="2"/>
+      <c r="W86" s="40"/>
+    </row>
+    <row r="87" spans="2:23">
+      <c r="B87" s="41"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="40"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="2"/>
+      <c r="S87" s="2"/>
+      <c r="T87" s="2"/>
+      <c r="U87" s="2"/>
+      <c r="V87" s="2"/>
+      <c r="W87" s="40"/>
+    </row>
+    <row r="88" spans="2:23">
+      <c r="B88" s="41"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="40"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="2"/>
+      <c r="S88" s="2"/>
+      <c r="T88" s="2"/>
+      <c r="U88" s="2"/>
+      <c r="V88" s="2"/>
+      <c r="W88" s="40"/>
+    </row>
+    <row r="89" spans="2:23" ht="14.25" thickBot="1">
+      <c r="B89" s="42"/>
+      <c r="C89" s="42"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="43"/>
+      <c r="F89" s="43"/>
+      <c r="G89" s="43"/>
+      <c r="H89" s="43"/>
+      <c r="I89" s="44"/>
+      <c r="J89" s="43"/>
+      <c r="K89" s="43"/>
+      <c r="L89" s="43"/>
+      <c r="M89" s="43"/>
+      <c r="N89" s="43"/>
+      <c r="O89" s="43"/>
+      <c r="P89" s="43"/>
+      <c r="Q89" s="43"/>
+      <c r="R89" s="43"/>
+      <c r="S89" s="43"/>
+      <c r="T89" s="43"/>
+      <c r="U89" s="43"/>
+      <c r="V89" s="43"/>
+      <c r="W89" s="44"/>
+    </row>
+    <row r="104" spans="2:23" ht="14.25" thickBot="1"/>
+    <row r="105" spans="2:23">
+      <c r="B105" s="48"/>
+      <c r="C105" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="D105" s="37"/>
+      <c r="E105" s="37"/>
+      <c r="F105" s="37"/>
+      <c r="G105" s="37"/>
+      <c r="H105" s="37"/>
+      <c r="I105" s="38"/>
+      <c r="J105" s="37"/>
+      <c r="K105" s="37"/>
+      <c r="L105" s="37"/>
+      <c r="M105" s="37"/>
+      <c r="N105" s="37"/>
+      <c r="O105" s="37"/>
+      <c r="P105" s="37"/>
+      <c r="Q105" s="37"/>
+      <c r="R105" s="37"/>
+      <c r="S105" s="37"/>
+      <c r="T105" s="37"/>
+      <c r="U105" s="37"/>
+      <c r="V105" s="37"/>
+      <c r="W105" s="38"/>
+    </row>
+    <row r="106" spans="2:23">
+      <c r="B106" s="41"/>
+      <c r="C106" s="41"/>
+      <c r="D106" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="40"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
+      <c r="P106" s="2"/>
+      <c r="Q106" s="2"/>
+      <c r="R106" s="2"/>
+      <c r="S106" s="2"/>
+      <c r="T106" s="2"/>
+      <c r="U106" s="2"/>
+      <c r="V106" s="2"/>
+      <c r="W106" s="40"/>
+    </row>
+    <row r="107" spans="2:23">
+      <c r="B107" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="C107" s="41"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="40"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
+      <c r="P107" s="2"/>
+      <c r="Q107" s="2"/>
+      <c r="R107" s="2"/>
+      <c r="S107" s="2"/>
+      <c r="T107" s="2"/>
+      <c r="U107" s="2"/>
+      <c r="V107" s="2"/>
+      <c r="W107" s="40"/>
+    </row>
+    <row r="108" spans="2:23">
+      <c r="B108" s="41"/>
+      <c r="C108" s="41"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="40"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
+      <c r="P108" s="2"/>
+      <c r="Q108" s="2"/>
+      <c r="R108" s="2"/>
+      <c r="S108" s="2"/>
+      <c r="T108" s="2"/>
+      <c r="U108" s="2"/>
+      <c r="V108" s="2"/>
+      <c r="W108" s="40"/>
+    </row>
+    <row r="109" spans="2:23">
+      <c r="B109" s="41"/>
+      <c r="C109" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="40"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
+      <c r="P109" s="2"/>
+      <c r="Q109" s="2"/>
+      <c r="R109" s="2"/>
+      <c r="S109" s="2"/>
+      <c r="T109" s="2"/>
+      <c r="U109" s="2"/>
+      <c r="V109" s="2"/>
+      <c r="W109" s="40"/>
+    </row>
+    <row r="110" spans="2:23">
+      <c r="B110" s="41"/>
+      <c r="C110" s="41"/>
+      <c r="D110" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="40"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
+      <c r="P110" s="2"/>
+      <c r="Q110" s="2"/>
+      <c r="R110" s="2"/>
+      <c r="S110" s="2"/>
+      <c r="T110" s="2"/>
+      <c r="U110" s="2"/>
+      <c r="V110" s="2"/>
+      <c r="W110" s="40"/>
+    </row>
+    <row r="111" spans="2:23">
+      <c r="B111" s="41"/>
+      <c r="C111" s="41"/>
+      <c r="D111" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="40"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
+      <c r="P111" s="2"/>
+      <c r="Q111" s="2"/>
+      <c r="R111" s="2"/>
+      <c r="S111" s="2"/>
+      <c r="T111" s="2"/>
+      <c r="U111" s="2"/>
+      <c r="V111" s="2"/>
+      <c r="W111" s="40"/>
+    </row>
+    <row r="112" spans="2:23">
+      <c r="B112" s="41"/>
+      <c r="C112" s="41"/>
+      <c r="D112" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="40"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
+      <c r="P112" s="2"/>
+      <c r="Q112" s="2"/>
+      <c r="R112" s="2"/>
+      <c r="S112" s="2"/>
+      <c r="T112" s="2"/>
+      <c r="U112" s="2"/>
+      <c r="V112" s="2"/>
+      <c r="W112" s="40"/>
+    </row>
+    <row r="113" spans="2:23">
+      <c r="B113" s="41"/>
+      <c r="C113" s="41"/>
+      <c r="D113" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="40"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
+      <c r="O113" s="2"/>
+      <c r="P113" s="2"/>
+      <c r="Q113" s="2"/>
+      <c r="R113" s="2"/>
+      <c r="S113" s="2"/>
+      <c r="T113" s="2"/>
+      <c r="U113" s="2"/>
+      <c r="V113" s="2"/>
+      <c r="W113" s="40"/>
+    </row>
+    <row r="114" spans="2:23">
+      <c r="B114" s="41"/>
+      <c r="C114" s="41"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="40"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
+      <c r="O114" s="2"/>
+      <c r="P114" s="2"/>
+      <c r="Q114" s="2"/>
+      <c r="R114" s="2"/>
+      <c r="S114" s="2"/>
+      <c r="T114" s="2"/>
+      <c r="U114" s="2"/>
+      <c r="V114" s="2"/>
+      <c r="W114" s="40"/>
+    </row>
+    <row r="115" spans="2:23">
+      <c r="B115" s="41"/>
+      <c r="C115" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="40"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
+      <c r="P115" s="2"/>
+      <c r="Q115" s="2"/>
+      <c r="R115" s="2"/>
+      <c r="S115" s="2"/>
+      <c r="T115" s="2"/>
+      <c r="U115" s="2"/>
+      <c r="V115" s="2"/>
+      <c r="W115" s="40"/>
+    </row>
+    <row r="116" spans="2:23">
+      <c r="B116" s="41"/>
+      <c r="C116" s="41"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="40"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
+      <c r="P116" s="2"/>
+      <c r="Q116" s="2"/>
+      <c r="R116" s="2"/>
+      <c r="S116" s="2"/>
+      <c r="T116" s="2"/>
+      <c r="U116" s="2"/>
+      <c r="V116" s="2"/>
+      <c r="W116" s="40"/>
+    </row>
+    <row r="117" spans="2:23">
+      <c r="B117" s="41"/>
+      <c r="C117" s="41"/>
+      <c r="D117" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="40"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
+      <c r="P117" s="2"/>
+      <c r="Q117" s="2"/>
+      <c r="R117" s="2"/>
+      <c r="S117" s="2"/>
+      <c r="T117" s="2"/>
+      <c r="U117" s="2"/>
+      <c r="V117" s="2"/>
+      <c r="W117" s="40"/>
+    </row>
+    <row r="118" spans="2:23">
+      <c r="B118" s="41"/>
+      <c r="C118" s="41"/>
+      <c r="D118" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="40"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="2"/>
+      <c r="N118" s="2"/>
+      <c r="O118" s="2"/>
+      <c r="P118" s="2"/>
+      <c r="Q118" s="2"/>
+      <c r="R118" s="2"/>
+      <c r="S118" s="2"/>
+      <c r="T118" s="2"/>
+      <c r="U118" s="2"/>
+      <c r="V118" s="2"/>
+      <c r="W118" s="40"/>
+    </row>
+    <row r="119" spans="2:23">
+      <c r="B119" s="41"/>
+      <c r="C119" s="41"/>
+      <c r="D119" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="40"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="2"/>
+      <c r="N119" s="2"/>
+      <c r="O119" s="2"/>
+      <c r="P119" s="2"/>
+      <c r="Q119" s="2"/>
+      <c r="R119" s="2"/>
+      <c r="S119" s="2"/>
+      <c r="T119" s="2"/>
+      <c r="U119" s="2"/>
+      <c r="V119" s="2"/>
+      <c r="W119" s="40"/>
+    </row>
+    <row r="120" spans="2:23">
+      <c r="B120" s="41"/>
+      <c r="C120" s="41"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="40"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="2"/>
+      <c r="M120" s="2"/>
+      <c r="N120" s="2"/>
+      <c r="O120" s="2"/>
+      <c r="P120" s="2"/>
+      <c r="Q120" s="2"/>
+      <c r="R120" s="2"/>
+      <c r="S120" s="2"/>
+      <c r="T120" s="2"/>
+      <c r="U120" s="2"/>
+      <c r="V120" s="2"/>
+      <c r="W120" s="40"/>
+    </row>
+    <row r="121" spans="2:23">
+      <c r="B121" s="41"/>
+      <c r="C121" s="41"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="40"/>
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
+      <c r="L121" s="2"/>
+      <c r="M121" s="2"/>
+      <c r="N121" s="2"/>
+      <c r="O121" s="2"/>
+      <c r="P121" s="2"/>
+      <c r="Q121" s="2"/>
+      <c r="R121" s="2"/>
+      <c r="S121" s="2"/>
+      <c r="T121" s="2"/>
+      <c r="U121" s="2"/>
+      <c r="V121" s="2"/>
+      <c r="W121" s="40"/>
+    </row>
+    <row r="122" spans="2:23" ht="14.25" thickBot="1">
+      <c r="B122" s="42"/>
+      <c r="C122" s="42"/>
+      <c r="D122" s="43"/>
+      <c r="E122" s="43"/>
+      <c r="F122" s="43"/>
+      <c r="G122" s="43"/>
+      <c r="H122" s="43"/>
+      <c r="I122" s="44"/>
+      <c r="J122" s="43"/>
+      <c r="K122" s="43"/>
+      <c r="L122" s="43"/>
+      <c r="M122" s="43"/>
+      <c r="N122" s="43"/>
+      <c r="O122" s="43"/>
+      <c r="P122" s="43"/>
+      <c r="Q122" s="43"/>
+      <c r="R122" s="43"/>
+      <c r="S122" s="43"/>
+      <c r="T122" s="43"/>
+      <c r="U122" s="43"/>
+      <c r="V122" s="43"/>
+      <c r="W122" s="44"/>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="B133" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="B134" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="B135" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="B136" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="B137" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="B138" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="B139" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="B140" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="B141" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="B142" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="B143" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="B144" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:J29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="C6" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="2:7" ht="15" customHeight="1">
+      <c r="C8" s="34"/>
+      <c r="D8" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="2:7" ht="16.5" customHeight="1">
+      <c r="C9" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="C11" s="19"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="C12" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="C13" s="22"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="C18" s="19"/>
+      <c r="D18" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="C19" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="18"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="C21" s="34"/>
+      <c r="D21" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="17"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="C22" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="C23" s="7"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="C24" s="34"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="C25" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="13"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="C26" s="7"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="C27" s="34"/>
+      <c r="D27" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="13"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="C28" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="13"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="C29" s="7"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C23"/>
   <sheetViews>
@@ -3212,107 +8097,107 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="C4" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="C5" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="C6" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="C7" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="C8" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="C9" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="C10" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="C11" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="C12" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="C13" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="C14" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="C15" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="C16" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Specification/企画書.xlsx
+++ b/Specification/企画書.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="305">
   <si>
     <t>シートページ</t>
     <phoneticPr fontId="1"/>
@@ -146,30 +146,6 @@
     <t>使用できるコマンド</t>
   </si>
   <si>
-    <t>・戦う（装備している武器による戦闘）</t>
-  </si>
-  <si>
-    <t>・特技（魔法が使えないキャラの特殊攻撃方法、ドラクエ６的なもの）</t>
-  </si>
-  <si>
-    <t>・アイテム（所持しているアイテムを使用することが可能。装備変更も可能にする）</t>
-  </si>
-  <si>
-    <t>・作戦（味方をAI行動にするかどうかが選択できる）</t>
-  </si>
-  <si>
-    <t>→たたかえ！（戦うコマンドを使用して攻撃するのみ。対象は左側からターゲットにしていく。選択した敵が既にやられていた場合は、次の敵をターゲットとする）</t>
-  </si>
-  <si>
-    <t>→守れ！（防御コマンドのみ使用する）</t>
-  </si>
-  <si>
-    <t>→回復しろ！（魔法もしくは特技もしくはアイテムで味方を回復する。回復する魔法がない場合は特技、特技もない場合はアイテム、アイテムもない場合は防御を行う。回復を行えるキャラがいない場合も防御を行う）</t>
-  </si>
-  <si>
-    <t>→命令を聞け！（ユーザが任意の行動をさせる）</t>
-  </si>
-  <si>
     <t>戦闘の詳細</t>
     <rPh sb="0" eb="2">
       <t>セントウ</t>
@@ -203,31 +179,6 @@
     <t>http://www.nicovideo.jp/watch/sm23886197</t>
   </si>
   <si>
-    <t>・逃げる(戦闘から離脱。戦闘に参加していた相手は消滅させる)</t>
-    <rPh sb="1" eb="2">
-      <t>ニ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>セントウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>リダツ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>セントウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>サンカ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>アイテ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ショウメツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パラメータ関連</t>
     <rPh sb="5" eb="7">
       <t>カンレン</t>
@@ -1256,26 +1207,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・防御（使用したターン、現在の防御力ｘ１０に防御力が上昇する）</t>
-    <rPh sb="4" eb="6">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>ボウギョリョク</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ジョウショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・魔法（属性効果のある攻撃、もしくはサポート）　</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>主人公のみ使用可能</t>
     <rPh sb="0" eb="3">
       <t>シュジンコウ</t>
@@ -2351,6 +2282,132 @@
     <t>イベント詳細</t>
     <rPh sb="4" eb="6">
       <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・戦う</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装備している武器による戦闘</t>
+  </si>
+  <si>
+    <t>・防御</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用したターン、現在の防御力ｘ１０に防御力が上昇する</t>
+  </si>
+  <si>
+    <t>・魔法　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性効果のある攻撃、もしくはサポート</t>
+  </si>
+  <si>
+    <t>・特技</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔法が使えないキャラの特殊攻撃方法、ドラクエ６的なもの</t>
+  </si>
+  <si>
+    <t>・アイテム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所持しているアイテムを使用することが可能。装備変更も可能にする</t>
+  </si>
+  <si>
+    <t>・作戦</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>味方をAI行動にするかどうかが選択できる</t>
+  </si>
+  <si>
+    <t>戦うコマンドを使用して攻撃するのみ。対象は左側からターゲットにしていく。選択した敵が既にやられていた場合は、次の敵をターゲットとする</t>
+  </si>
+  <si>
+    <t>防御コマンドのみ使用する</t>
+  </si>
+  <si>
+    <t>魔法もしくは特技もしくはアイテムで味方を回復する。回復する魔法がない場合は特技、特技もない場合はアイテム、アイテムもない場合は防御を行う。回復を行えるキャラがいない場合も防御を行う</t>
+  </si>
+  <si>
+    <t>ユーザが任意の行動をさせる</t>
+  </si>
+  <si>
+    <t>たたかえ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>守れ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回復しろ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>命令を聞け！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・逃げる</t>
+    <rPh sb="1" eb="2">
+      <t>ニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦闘から離脱。戦闘に参加していた相手は消滅させる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※正確には、敵オブジェクトを地面の中に移動させる</t>
+    <rPh sb="1" eb="3">
+      <t>セイカク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細未定</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ミテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦闘システム一部文言修正</t>
+    <rPh sb="0" eb="2">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モンゴン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2413,7 +2470,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -2778,6 +2835,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2788,7 +2858,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2973,6 +3043,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3276,13 +3349,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>370903</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3316,13 +3389,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>23813</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3356,13 +3429,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>17827</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3396,13 +3469,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3429,13 +3502,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3476,13 +3549,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4127,7 +4200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -4147,10 +4220,10 @@
     <row r="1" spans="1:7">
       <c r="A1" s="26">
         <f ca="1">NOW()</f>
-        <v>41909.012912384256</v>
+        <v>41909.020896180555</v>
       </c>
       <c r="B1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4163,7 +4236,7 @@
     </row>
     <row r="4" spans="1:7" ht="14.25" thickBot="1">
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -4179,7 +4252,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4194,8 +4267,7 @@
         <v>目次へ</v>
       </c>
       <c r="F6" s="26">
-        <f ca="1">NOW()</f>
-        <v>41909.012912384256</v>
+        <v>41909.020178125</v>
       </c>
       <c r="G6" s="24"/>
     </row>
@@ -4211,8 +4283,7 @@
         <v>ゲーム概要へ</v>
       </c>
       <c r="F7" s="26">
-        <f t="shared" ref="F7:F12" ca="1" si="0">NOW()</f>
-        <v>41909.012912384256</v>
+        <v>41909.020178125</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4227,8 +4298,7 @@
         <v>戦闘システムへ</v>
       </c>
       <c r="F8" s="26">
-        <f t="shared" ca="1" si="0"/>
-        <v>41909.012912384256</v>
+        <v>41909.020178125</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4243,8 +4313,7 @@
         <v>Mock版仕様へ</v>
       </c>
       <c r="F9" s="26">
-        <f t="shared" ca="1" si="0"/>
-        <v>41909.012912384256</v>
+        <v>41909.020178125</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4252,15 +4321,14 @@
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E10" s="6" t="str">
         <f>HYPERLINK("#ゲーム全体の流れ!A1",D10&amp;"へ")</f>
         <v>ゲーム全体の流れへ</v>
       </c>
       <c r="F10" s="26">
-        <f t="shared" ca="1" si="0"/>
-        <v>41909.012912384256</v>
+        <v>41909.020178125</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4268,15 +4336,14 @@
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="E11" s="6" t="str">
         <f>HYPERLINK("#イベント発生タイミング!A1",D11&amp;"へ")</f>
         <v>イベント発生タイミングへ</v>
       </c>
       <c r="F11" s="26">
-        <f t="shared" ca="1" si="0"/>
-        <v>41909.012912384256</v>
+        <v>41909.020178125</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4284,15 +4351,14 @@
         <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="E12" s="6" t="str">
         <f>HYPERLINK("#イベント詳細!A1",D12&amp;"へ")</f>
         <v>イベント詳細へ</v>
       </c>
       <c r="F12" s="26">
-        <f t="shared" ca="1" si="0"/>
-        <v>41909.012912384256</v>
+        <v>41909.020178125</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4321,91 +4387,97 @@
     </row>
     <row r="21" spans="2:5" ht="14.25" thickBot="1">
       <c r="B21" s="11" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="14.25" thickBot="1">
       <c r="C22" s="5" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="C23" s="28">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="14.25" thickBot="1">
+      <c r="C23" s="27">
+        <v>41909</v>
+      </c>
+      <c r="D23" s="62" t="s">
+        <v>304</v>
+      </c>
+      <c r="E23" s="62"/>
+    </row>
+    <row r="24" spans="2:5" ht="14.25" thickTop="1">
+      <c r="C24" s="27">
         <v>41908</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="C24" s="28"/>
-      <c r="D24" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E24" s="1"/>
+      <c r="D24" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="2:5">
       <c r="C25" s="28"/>
       <c r="D25" s="1" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="2:5" ht="14.25" thickBot="1">
-      <c r="C26" s="29"/>
-      <c r="D26" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="E26" s="25"/>
-    </row>
-    <row r="27" spans="2:5" ht="14.25" thickTop="1">
-      <c r="C27" s="58">
+    <row r="26" spans="2:5">
+      <c r="C26" s="28"/>
+      <c r="D26" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="2:5" ht="14.25" thickBot="1">
+      <c r="C27" s="29"/>
+      <c r="D27" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="E27" s="25"/>
+    </row>
+    <row r="28" spans="2:5" ht="14.25" thickTop="1">
+      <c r="C28" s="58">
         <v>41907.997525925923</v>
       </c>
-      <c r="D27" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" s="59"/>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="C28" s="27"/>
-      <c r="D28" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" s="7"/>
+      <c r="D28" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="59"/>
     </row>
     <row r="29" spans="2:5">
-      <c r="C29" s="28"/>
-      <c r="D29" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="1"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="2:5">
       <c r="C30" s="28"/>
       <c r="D30" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="2:5" ht="14.25" thickBot="1">
-      <c r="C31" s="29"/>
-      <c r="D31" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31" s="25"/>
-    </row>
-    <row r="32" spans="2:5" ht="14.25" thickTop="1">
-      <c r="C32" s="30"/>
-    </row>
-    <row r="33" spans="3:3">
+    <row r="31" spans="2:5">
+      <c r="C31" s="28"/>
+      <c r="D31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="2:5" ht="14.25" thickBot="1">
+      <c r="C32" s="29"/>
+      <c r="D32" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="25"/>
+    </row>
+    <row r="33" spans="3:3" ht="14.25" thickTop="1">
       <c r="C33" s="30"/>
     </row>
     <row r="34" spans="3:3">
@@ -4578,6 +4650,9 @@
     </row>
     <row r="90" spans="3:3">
       <c r="C90" s="30"/>
+    </row>
+    <row r="91" spans="3:3">
+      <c r="C91" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4591,7 +4666,7 @@
   <dimension ref="A1:X52"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4603,7 +4678,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="I2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -4689,32 +4764,32 @@
     </row>
     <row r="16" spans="1:17">
       <c r="I16" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J16" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="P16" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="Q16" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="2:24">
       <c r="M24" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="2:24">
       <c r="M25" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="Q25" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="X25" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="2:24">
@@ -4733,7 +4808,7 @@
     </row>
     <row r="27" spans="2:24">
       <c r="B27" s="19" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
@@ -4747,7 +4822,7 @@
     </row>
     <row r="28" spans="2:24">
       <c r="B28" s="21" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -4761,7 +4836,7 @@
     </row>
     <row r="29" spans="2:24">
       <c r="B29" s="21" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -4775,7 +4850,7 @@
     </row>
     <row r="30" spans="2:24">
       <c r="B30" s="21" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -4801,7 +4876,7 @@
     </row>
     <row r="32" spans="2:24">
       <c r="B32" s="21" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -4815,7 +4890,7 @@
     </row>
     <row r="33" spans="2:11">
       <c r="B33" s="21" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -4841,7 +4916,7 @@
     </row>
     <row r="35" spans="2:11">
       <c r="B35" s="21" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -4855,7 +4930,7 @@
     </row>
     <row r="36" spans="2:11">
       <c r="B36" s="21" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -4869,7 +4944,7 @@
     </row>
     <row r="37" spans="2:11">
       <c r="B37" s="21" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -4883,7 +4958,7 @@
     </row>
     <row r="38" spans="2:11">
       <c r="B38" s="21" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -4909,7 +4984,7 @@
     </row>
     <row r="40" spans="2:11">
       <c r="B40" s="21" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -4923,7 +4998,7 @@
     </row>
     <row r="41" spans="2:11">
       <c r="B41" s="21" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -4937,7 +5012,7 @@
     </row>
     <row r="42" spans="2:11">
       <c r="B42" s="21" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -4951,7 +5026,7 @@
     </row>
     <row r="43" spans="2:11">
       <c r="B43" s="21" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -4977,7 +5052,7 @@
     </row>
     <row r="45" spans="2:11">
       <c r="B45" s="21" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -4991,7 +5066,7 @@
     </row>
     <row r="46" spans="2:11">
       <c r="B46" s="21" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -5005,7 +5080,7 @@
     </row>
     <row r="47" spans="2:11">
       <c r="B47" s="21" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -5019,7 +5094,7 @@
     </row>
     <row r="48" spans="2:11">
       <c r="B48" s="21" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -5033,7 +5108,7 @@
     </row>
     <row r="49" spans="2:11">
       <c r="B49" s="60" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -5059,7 +5134,7 @@
     </row>
     <row r="51" spans="2:11">
       <c r="B51" s="21" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -5073,7 +5148,7 @@
     </row>
     <row r="52" spans="2:11">
       <c r="B52" s="61" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
@@ -5095,9 +5170,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N133"/>
+  <dimension ref="A1:U132"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -5116,24 +5193,24 @@
     </row>
     <row r="4" spans="1:14">
       <c r="B4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="B5" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G5" t="s">
         <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M5" t="s">
         <v>21</v>
@@ -5144,12 +5221,12 @@
     </row>
     <row r="6" spans="1:14">
       <c r="B6" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="B10" s="35" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -5158,7 +5235,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="B11" s="19" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -5167,7 +5244,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="B12" s="21" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -5176,7 +5253,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="B13" s="22" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -5185,7 +5262,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="B16" s="35" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -5194,7 +5271,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="B17" s="19" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
@@ -5203,7 +5280,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="B18" s="21" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -5212,7 +5289,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="B19" s="22" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -5221,7 +5298,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5231,209 +5308,356 @@
     </row>
     <row r="30" spans="1:6">
       <c r="B30" t="s">
-        <v>23</v>
+        <v>280</v>
+      </c>
+      <c r="C30" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="B31" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
+        <v>282</v>
+      </c>
+      <c r="C31" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21">
       <c r="B33" s="11" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21">
       <c r="B34" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3">
+        <v>284</v>
+      </c>
+      <c r="C34" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21">
       <c r="B35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="B40" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3">
-      <c r="C41" t="s">
+        <v>286</v>
+      </c>
+      <c r="C35" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21">
+      <c r="B37" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21">
+      <c r="B38" t="s">
+        <v>290</v>
+      </c>
+      <c r="C38" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21">
+      <c r="C39" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="17"/>
+    </row>
+    <row r="40" spans="2:21">
+      <c r="C40" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="20"/>
+      <c r="U40" s="17"/>
+    </row>
+    <row r="41" spans="2:21">
+      <c r="C41" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="15"/>
+      <c r="S41" s="15"/>
+      <c r="T41" s="15"/>
+      <c r="U41" s="16"/>
+    </row>
+    <row r="42" spans="2:21">
+      <c r="C42" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="18"/>
+    </row>
+    <row r="43" spans="2:21">
+      <c r="C43" s="33"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+    </row>
+    <row r="44" spans="2:21">
+      <c r="B44" t="s">
+        <v>288</v>
+      </c>
+      <c r="C44" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21">
+      <c r="B45" t="s">
+        <v>300</v>
+      </c>
+      <c r="C45" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21">
+      <c r="F46" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="B50" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="C51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="C52" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="C53" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="C54" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="C55" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="C56" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="B57" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="B58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="42" spans="2:3">
-      <c r="C42" t="s">
+      <c r="K69" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="B70" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="2:3">
-      <c r="C43" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3">
-      <c r="C44" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3">
-      <c r="B46" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="B51" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="C52" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="C53" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="C54" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="C55" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="C56" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="C57" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="B58" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="B59" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" t="s">
-        <v>36</v>
-      </c>
-      <c r="K70" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
     <row r="71" spans="1:11">
-      <c r="B71" s="11" t="s">
-        <v>37</v>
-      </c>
+      <c r="B71" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="17"/>
     </row>
     <row r="72" spans="1:11">
       <c r="B72" s="55" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D72" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="20"/>
-      <c r="J72" s="17"/>
+        <v>176</v>
+      </c>
+      <c r="D72" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
     </row>
     <row r="73" spans="1:11">
       <c r="B73" s="55" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D73" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
+        <v>177</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="17"/>
     </row>
     <row r="74" spans="1:11">
       <c r="B74" s="55" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D74" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="20"/>
-      <c r="J74" s="17"/>
+        <v>179</v>
+      </c>
+      <c r="D74" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
     </row>
     <row r="75" spans="1:11">
       <c r="B75" s="55" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D75" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
+        <v>180</v>
+      </c>
+      <c r="D75" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="18"/>
     </row>
     <row r="76" spans="1:11">
       <c r="B76" s="55" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="E76" s="12"/>
       <c r="F76" s="12"/>
@@ -5444,13 +5668,13 @@
     </row>
     <row r="77" spans="1:11">
       <c r="B77" s="55" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
@@ -5461,13 +5685,13 @@
     </row>
     <row r="78" spans="1:11">
       <c r="B78" s="55" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D78" s="22" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
@@ -5476,42 +5700,42 @@
       <c r="I78" s="12"/>
       <c r="J78" s="18"/>
     </row>
-    <row r="79" spans="1:11">
-      <c r="B79" s="55" t="s">
-        <v>176</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D79" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="18"/>
-    </row>
-    <row r="81" spans="2:11">
-      <c r="K81" s="11" t="s">
-        <v>43</v>
+    <row r="80" spans="1:11">
+      <c r="K80" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11">
+      <c r="B82" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="83" spans="2:11">
-      <c r="B83" s="11" t="s">
-        <v>38</v>
-      </c>
+      <c r="B83" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D83" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="17"/>
     </row>
     <row r="84" spans="2:11">
       <c r="B84" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="E84" s="20"/>
       <c r="F84" s="20"/>
@@ -5522,47 +5746,47 @@
     </row>
     <row r="85" spans="2:11">
       <c r="B85" s="32" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D85" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="E85" s="20"/>
-      <c r="F85" s="20"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="20"/>
-      <c r="I85" s="20"/>
-      <c r="J85" s="17"/>
+        <v>189</v>
+      </c>
+      <c r="D85" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
     </row>
     <row r="86" spans="2:11">
       <c r="B86" s="32" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D86" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="16"/>
+        <v>191</v>
+      </c>
+      <c r="D86" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="18"/>
     </row>
     <row r="87" spans="2:11">
       <c r="B87" s="32" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D87" s="22" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="E87" s="12"/>
       <c r="F87" s="12"/>
@@ -5573,13 +5797,13 @@
     </row>
     <row r="88" spans="2:11">
       <c r="B88" s="32" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D88" s="22" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E88" s="12"/>
       <c r="F88" s="12"/>
@@ -5588,76 +5812,76 @@
       <c r="I88" s="12"/>
       <c r="J88" s="18"/>
     </row>
-    <row r="89" spans="2:11">
-      <c r="B89" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D89" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="18"/>
+    <row r="96" spans="2:11">
+      <c r="K96" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="97" spans="2:11">
-      <c r="K97" s="11" t="s">
-        <v>44</v>
+      <c r="B97" s="11" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="2:11">
-      <c r="B98" s="11" t="s">
-        <v>39</v>
-      </c>
+      <c r="B98" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D98" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="E98" s="20"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="20"/>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="17"/>
     </row>
     <row r="99" spans="2:11">
       <c r="B99" s="32" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D99" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="E99" s="20"/>
-      <c r="F99" s="20"/>
-      <c r="G99" s="20"/>
-      <c r="H99" s="20"/>
-      <c r="I99" s="20"/>
-      <c r="J99" s="17"/>
+        <v>177</v>
+      </c>
+      <c r="D99" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
     </row>
     <row r="100" spans="2:11">
       <c r="B100" s="32" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D100" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="E100" s="15"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="15"/>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
+      <c r="D100" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="18"/>
     </row>
     <row r="101" spans="2:11">
       <c r="B101" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
+      </c>
+      <c r="C101" s="56" t="s">
+        <v>197</v>
       </c>
       <c r="D101" s="22" t="s">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
@@ -5666,76 +5890,76 @@
       <c r="I101" s="12"/>
       <c r="J101" s="18"/>
     </row>
-    <row r="102" spans="2:11">
-      <c r="B102" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="C102" s="56" t="s">
-        <v>208</v>
-      </c>
-      <c r="D102" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="E102" s="12"/>
-      <c r="F102" s="12"/>
-      <c r="G102" s="12"/>
-      <c r="H102" s="12"/>
-      <c r="I102" s="12"/>
-      <c r="J102" s="18"/>
+    <row r="112" spans="2:11">
+      <c r="K112" s="11" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="113" spans="2:11">
-      <c r="K113" s="11" t="s">
-        <v>45</v>
+      <c r="B113" s="11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="114" spans="2:11">
-      <c r="B114" s="11" t="s">
-        <v>40</v>
-      </c>
+      <c r="B114" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D114" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="E114" s="20"/>
+      <c r="F114" s="20"/>
+      <c r="G114" s="20"/>
+      <c r="H114" s="20"/>
+      <c r="I114" s="20"/>
+      <c r="J114" s="17"/>
     </row>
     <row r="115" spans="2:11">
       <c r="B115" s="32" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D115" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="E115" s="20"/>
-      <c r="F115" s="20"/>
-      <c r="G115" s="20"/>
-      <c r="H115" s="20"/>
-      <c r="I115" s="20"/>
-      <c r="J115" s="17"/>
+        <v>179</v>
+      </c>
+      <c r="D115" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E115" s="15"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="15"/>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
     </row>
     <row r="116" spans="2:11">
       <c r="B116" s="32" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D116" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="E116" s="15"/>
-      <c r="F116" s="15"/>
-      <c r="G116" s="15"/>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
+        <v>180</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
+      <c r="J116" s="18"/>
     </row>
     <row r="117" spans="2:11">
       <c r="B117" s="32" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="E117" s="12"/>
       <c r="F117" s="12"/>
@@ -5746,54 +5970,52 @@
     </row>
     <row r="118" spans="2:11">
       <c r="B118" s="32" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D118" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="E118" s="12"/>
-      <c r="F118" s="12"/>
-      <c r="G118" s="12"/>
-      <c r="H118" s="12"/>
-      <c r="I118" s="12"/>
-      <c r="J118" s="18"/>
-    </row>
-    <row r="119" spans="2:11">
-      <c r="B119" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D119" s="57" t="s">
-        <v>218</v>
-      </c>
-      <c r="E119" s="15"/>
-      <c r="F119" s="15"/>
-      <c r="G119" s="15"/>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="16"/>
+        <v>197</v>
+      </c>
+      <c r="D118" s="57" t="s">
+        <v>207</v>
+      </c>
+      <c r="E118" s="15"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="15"/>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+    </row>
+    <row r="122" spans="2:11">
+      <c r="K122" s="11" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="123" spans="2:11">
-      <c r="K123" s="11" t="s">
-        <v>46</v>
+      <c r="B123" s="11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="124" spans="2:11">
-      <c r="B124" s="11" t="s">
-        <v>41</v>
-      </c>
+      <c r="B124" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
     </row>
     <row r="125" spans="2:11">
       <c r="B125" s="32" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -5805,10 +6027,10 @@
     </row>
     <row r="126" spans="2:11">
       <c r="B126" s="32" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -5820,10 +6042,10 @@
     </row>
     <row r="127" spans="2:11">
       <c r="B127" s="32" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -5835,13 +6057,15 @@
     </row>
     <row r="128" spans="2:11">
       <c r="B128" s="32" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
+      <c r="E128" t="s">
+        <v>47</v>
+      </c>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
@@ -5850,14 +6074,14 @@
     </row>
     <row r="129" spans="2:10">
       <c r="B129" s="32" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D129" s="2"/>
-      <c r="E129" t="s">
-        <v>56</v>
+      <c r="E129" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
@@ -5867,15 +6091,13 @@
     </row>
     <row r="130" spans="2:10">
       <c r="B130" s="32" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D130" s="2"/>
-      <c r="E130" s="2" t="s">
-        <v>220</v>
-      </c>
+      <c r="E130" s="2"/>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
@@ -5884,10 +6106,10 @@
     </row>
     <row r="131" spans="2:10">
       <c r="B131" s="32" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -5899,7 +6121,7 @@
     </row>
     <row r="132" spans="2:10">
       <c r="B132" s="32" t="s">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>197</v>
@@ -5912,25 +6134,11 @@
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
     </row>
-    <row r="133" spans="2:10">
-      <c r="B133" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
-      <c r="I133" s="2"/>
-      <c r="J133" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5952,35 +6160,35 @@
     </row>
     <row r="2" spans="2:19">
       <c r="B2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="2:19">
       <c r="B4" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="2:19">
       <c r="B5" s="54" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C5" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="2:19">
       <c r="B6" s="54" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="2:19" ht="14.25" thickBot="1"/>
     <row r="11" spans="2:19">
       <c r="B11" s="48"/>
       <c r="C11" s="36" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D11" s="37"/>
       <c r="E11" s="37"/>
@@ -6001,11 +6209,11 @@
     </row>
     <row r="12" spans="2:19">
       <c r="B12" s="39" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C12" s="41"/>
       <c r="D12" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -6014,12 +6222,12 @@
       <c r="I12" s="40"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
@@ -6048,7 +6256,7 @@
     <row r="14" spans="2:19">
       <c r="B14" s="41"/>
       <c r="C14" s="50" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -6071,7 +6279,7 @@
       <c r="B15" s="41"/>
       <c r="C15" s="51"/>
       <c r="D15" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -6093,7 +6301,7 @@
       <c r="B16" s="41"/>
       <c r="C16" s="51"/>
       <c r="D16" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -6174,7 +6382,7 @@
     <row r="20" spans="2:19">
       <c r="B20" s="41"/>
       <c r="C20" s="39" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -6217,7 +6425,7 @@
       <c r="B22" s="41"/>
       <c r="C22" s="41"/>
       <c r="D22" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -6308,7 +6516,7 @@
     <row r="41" spans="2:23">
       <c r="B41" s="49"/>
       <c r="C41" s="33" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -6333,10 +6541,10 @@
     </row>
     <row r="42" spans="2:23">
       <c r="B42" s="45" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -6370,13 +6578,13 @@
       <c r="J43" s="41"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
@@ -6433,7 +6641,7 @@
     <row r="46" spans="2:23">
       <c r="B46" s="46"/>
       <c r="C46" s="33" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -6460,7 +6668,7 @@
       <c r="B47" s="46"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -6486,7 +6694,7 @@
       <c r="B48" s="46"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -6552,7 +6760,7 @@
     <row r="51" spans="2:23">
       <c r="B51" s="46"/>
       <c r="C51" s="33" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -6603,7 +6811,7 @@
       <c r="B53" s="46"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -6812,7 +7020,7 @@
     <row r="72" spans="2:23">
       <c r="B72" s="48"/>
       <c r="C72" s="36" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D72" s="37"/>
       <c r="E72" s="37"/>
@@ -6839,7 +7047,7 @@
       <c r="B73" s="41"/>
       <c r="C73" s="41"/>
       <c r="D73" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
@@ -6863,7 +7071,7 @@
     </row>
     <row r="74" spans="2:23">
       <c r="B74" s="39" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C74" s="41"/>
       <c r="D74" s="2"/>
@@ -6914,7 +7122,7 @@
     <row r="76" spans="2:23">
       <c r="B76" s="41"/>
       <c r="C76" s="39" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -6941,7 +7149,7 @@
       <c r="B77" s="41"/>
       <c r="C77" s="41"/>
       <c r="D77" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -6967,7 +7175,7 @@
       <c r="B78" s="41"/>
       <c r="C78" s="41"/>
       <c r="D78" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
@@ -6993,7 +7201,7 @@
       <c r="B79" s="41"/>
       <c r="C79" s="41"/>
       <c r="D79" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
@@ -7019,7 +7227,7 @@
       <c r="B80" s="41"/>
       <c r="C80" s="41"/>
       <c r="D80" s="52" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
@@ -7068,7 +7276,7 @@
     <row r="82" spans="2:23">
       <c r="B82" s="41"/>
       <c r="C82" s="39" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -7119,7 +7327,7 @@
       <c r="B84" s="41"/>
       <c r="C84" s="41"/>
       <c r="D84" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
@@ -7145,7 +7353,7 @@
       <c r="B85" s="41"/>
       <c r="C85" s="41"/>
       <c r="D85" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -7171,7 +7379,7 @@
       <c r="B86" s="41"/>
       <c r="C86" s="41"/>
       <c r="D86" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
@@ -7269,7 +7477,7 @@
     <row r="105" spans="2:23">
       <c r="B105" s="48"/>
       <c r="C105" s="36" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D105" s="37"/>
       <c r="E105" s="37"/>
@@ -7296,7 +7504,7 @@
       <c r="B106" s="41"/>
       <c r="C106" s="41"/>
       <c r="D106" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
@@ -7320,7 +7528,7 @@
     </row>
     <row r="107" spans="2:23">
       <c r="B107" s="39" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C107" s="41"/>
       <c r="D107" s="2"/>
@@ -7371,7 +7579,7 @@
     <row r="109" spans="2:23">
       <c r="B109" s="41"/>
       <c r="C109" s="39" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -7398,7 +7606,7 @@
       <c r="B110" s="41"/>
       <c r="C110" s="41"/>
       <c r="D110" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
@@ -7424,7 +7632,7 @@
       <c r="B111" s="41"/>
       <c r="C111" s="41"/>
       <c r="D111" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
@@ -7450,7 +7658,7 @@
       <c r="B112" s="41"/>
       <c r="C112" s="41"/>
       <c r="D112" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
@@ -7476,7 +7684,7 @@
       <c r="B113" s="41"/>
       <c r="C113" s="41"/>
       <c r="D113" s="52" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
@@ -7525,7 +7733,7 @@
     <row r="115" spans="2:23">
       <c r="B115" s="41"/>
       <c r="C115" s="39" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -7576,7 +7784,7 @@
       <c r="B117" s="41"/>
       <c r="C117" s="41"/>
       <c r="D117" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
@@ -7602,7 +7810,7 @@
       <c r="B118" s="41"/>
       <c r="C118" s="41"/>
       <c r="D118" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
@@ -7628,7 +7836,7 @@
       <c r="B119" s="41"/>
       <c r="C119" s="41"/>
       <c r="D119" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
@@ -7724,67 +7932,67 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="B133" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="B134" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="B135" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="B136" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="B137" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="B138" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="B139" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="B140" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="B141" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="B142" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="B143" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="B144" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -7808,12 +8016,12 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -7825,13 +8033,13 @@
     </row>
     <row r="6" spans="2:7">
       <c r="C6" s="31" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="13"/>
@@ -7846,23 +8054,23 @@
     <row r="8" spans="2:7" ht="15" customHeight="1">
       <c r="C8" s="34"/>
       <c r="D8" s="31" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:7" ht="16.5" customHeight="1">
       <c r="C9" s="31" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
@@ -7870,10 +8078,10 @@
     <row r="10" spans="2:7">
       <c r="C10" s="7"/>
       <c r="D10" s="7" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="18"/>
@@ -7887,13 +8095,13 @@
     </row>
     <row r="12" spans="2:7">
       <c r="C12" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="13"/>
@@ -7907,18 +8115,18 @@
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="2:10">
       <c r="C18" s="19"/>
       <c r="D18" s="19" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="17"/>
       <c r="G18" s="19" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
@@ -7926,15 +8134,15 @@
     </row>
     <row r="19" spans="2:10">
       <c r="C19" s="21" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="13"/>
       <c r="G19" s="21" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -7953,12 +8161,12 @@
     <row r="21" spans="2:10">
       <c r="C21" s="34"/>
       <c r="D21" s="21" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="13"/>
       <c r="G21" s="19" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
@@ -7966,15 +8174,15 @@
     </row>
     <row r="22" spans="2:10">
       <c r="C22" s="31" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="13"/>
       <c r="G22" s="21" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -8002,15 +8210,15 @@
     </row>
     <row r="25" spans="2:10">
       <c r="C25" s="31" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="13"/>
       <c r="G25" s="21" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -8029,12 +8237,12 @@
     <row r="27" spans="2:10">
       <c r="C27" s="34"/>
       <c r="D27" s="21" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="13"/>
       <c r="G27" s="21" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -8042,15 +8250,15 @@
     </row>
     <row r="28" spans="2:10">
       <c r="C28" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="13"/>
       <c r="G28" s="21" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -8097,107 +8305,107 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="C4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="C5" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="C6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="C7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="C8" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="C9" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="C10" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="C11" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="C12" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="C13" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="C14" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="C15" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="C16" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Specification/企画書.xlsx
+++ b/Specification/企画書.xlsx
@@ -13,14 +13,15 @@
     <sheet name="ゲーム全体の流れ" sheetId="5" r:id="rId4"/>
     <sheet name="イベント発生タイミング" sheetId="6" r:id="rId5"/>
     <sheet name="イベント詳細" sheetId="7" r:id="rId6"/>
-    <sheet name="Ｍｏｃｋ版仕様" sheetId="4" r:id="rId7"/>
+    <sheet name="バトルの遷移" sheetId="8" r:id="rId7"/>
+    <sheet name="Ｍｏｃｋ版仕様" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="366">
   <si>
     <t>シートページ</t>
     <phoneticPr fontId="1"/>
@@ -2408,6 +2409,722 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仲間設定イベント</t>
+    <rPh sb="0" eb="2">
+      <t>ナカマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>職業という概念はないが、キャラクター毎に異なる点が存在する</t>
+    <rPh sb="0" eb="2">
+      <t>ショクギョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガイネン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「魔法」もしくは「特技」のどちらかが使用可能</t>
+  </si>
+  <si>
+    <t>装備出来る武器・防具が異なる</t>
+  </si>
+  <si>
+    <t>Ａ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ｂ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ｃ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ｄ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ｅ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラ１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラ２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラ３</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラ４</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラ５</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクターのパラメータは３種類のパターンからランダムで選出される</t>
+    <rPh sb="14" eb="16">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>センシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※決定されるタイミングは加入選択時(画面変更によるパターンの更新は許可しないものとする)</t>
+    <rPh sb="1" eb="3">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カニュウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>５人(暫定)のキャラクターの中から２人を選出する。(期間と技術力の関係で３人の中から１人選出するように変更する可能性あり)</t>
+    <rPh sb="1" eb="2">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ザンテイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センシュツ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>ギジュツリョク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>センシュツ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="55" eb="58">
+      <t>カノウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会話イベント</t>
+    <rPh sb="0" eb="2">
+      <t>カイワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各キャラクターに設定された「好感度」を大幅にあげるチャンスイベント</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>コウカンド</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>オオハバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>好感度の初期値は「0」からの加点方式</t>
+    <rPh sb="0" eb="3">
+      <t>コウカンド</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カテン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>好感度</t>
+    <rPh sb="0" eb="3">
+      <t>コウカンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>演出</t>
+    <rPh sb="0" eb="2">
+      <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40 - 79</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0  - 39</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80 - 100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>味方</t>
+    <rPh sb="0" eb="2">
+      <t>ミカタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔王</t>
+    <rPh sb="0" eb="2">
+      <t>マオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔王(true)</t>
+    <rPh sb="0" eb="2">
+      <t>マオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベントの選択肢は４つから３つが選出される</t>
+    <rPh sb="5" eb="8">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択肢</t>
+    <rPh sb="0" eb="3">
+      <t>センタクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上昇値</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウショウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※値は暫定</t>
+    <rPh sb="1" eb="2">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ザンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>好感度の変動について</t>
+    <rPh sb="0" eb="3">
+      <t>コウカンド</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦闘での「支援」によって好感度が変動する</t>
+    <rPh sb="0" eb="2">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シエン</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>コウカンド</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変動するパターン</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムによる回復</t>
+    <rPh sb="7" eb="9">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔法による回復</t>
+    <rPh sb="0" eb="2">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムによるパラメータ上昇支援</t>
+    <rPh sb="12" eb="14">
+      <t>ジョウショウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔法によるパラメータ上昇支援</t>
+    <rPh sb="0" eb="2">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウショウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上昇</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下降</t>
+    <rPh sb="0" eb="2">
+      <t>カコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>逃げるコマンドの使用</t>
+    <rPh sb="0" eb="1">
+      <t>ニ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※各変動は主人公から行われた場合のみ発生する</t>
+    <rPh sb="1" eb="2">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンドウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※各変動の値に関しては未定</t>
+    <rPh sb="1" eb="2">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンドウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ミテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦闘イベント</t>
+    <rPh sb="0" eb="2">
+      <t>セントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定の敵と対戦する</t>
+    <rPh sb="0" eb="2">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タイセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>街Ｃでのみ発動する限定イベント</t>
+    <rPh sb="0" eb="1">
+      <t>マチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゲンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「主人公たちの影」を想定</t>
+    <rPh sb="1" eb="4">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カゲ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラメータは、その時点での主人公たちのパラメータおよび魔法・特技を反映させる</t>
+    <rPh sb="9" eb="11">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>トクギ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔王確定イベント</t>
+    <rPh sb="0" eb="2">
+      <t>マオウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>好感度の高いキャラを「魔王」に据える</t>
+    <rPh sb="0" eb="3">
+      <t>コウカンド</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>マオウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各選択しにおいて、そのキャラ独自の会話イベントを見ることができる</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ドクジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カイワ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会話イベントを振り返れるような「図鑑」や「レコーダー」を作成するかは未定</t>
+    <rPh sb="0" eb="2">
+      <t>カイワ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ズカン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ミテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値はfloatで持ち、より高い方を優先する</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ユウセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同値の場合、仲間にした順番が早い方を優先する</t>
+    <rPh sb="0" eb="1">
+      <t>ドウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ナカマ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ユウセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>両キャラの好感度が80以上ある場合に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>エンディング確定</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウカンド</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カクテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>それ以外は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Normal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>エンディング確定</t>
+    </r>
+    <rPh sb="2" eb="4">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント詳細の内容を更新</t>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バトルの遷移作成</t>
+    <rPh sb="4" eb="6">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バトルの遷移</t>
+    <rPh sb="4" eb="6">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2416,7 +3133,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2449,8 +3169,33 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2466,6 +3211,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2858,7 +3627,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3046,6 +3815,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4200,7 +4993,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -4220,7 +5013,7 @@
     <row r="1" spans="1:7">
       <c r="A1" s="26">
         <f ca="1">NOW()</f>
-        <v>41909.020896180555</v>
+        <v>41910.051827083335</v>
       </c>
       <c r="B1" t="s">
         <v>84</v>
@@ -4365,9 +5158,16 @@
       <c r="C13" s="10">
         <v>8</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E13" s="6" t="str">
+        <f>HYPERLINK("#バトルの遷移!A1",D13&amp;"へ")</f>
+        <v>バトルの遷移へ</v>
+      </c>
+      <c r="F13" s="70">
+        <v>41910.050706018519</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="C14" s="10">
@@ -4390,139 +5190,149 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="14.25" thickBot="1">
-      <c r="C22" s="5" t="s">
+    <row r="22" spans="2:5">
+      <c r="C22" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="49" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="14.25" thickBot="1">
-      <c r="C23" s="27">
+    <row r="23" spans="2:5">
+      <c r="C23" s="28">
+        <v>41910</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="2:5" ht="14.25" thickBot="1">
+      <c r="C24" s="25"/>
+      <c r="D24" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="E24" s="25"/>
+    </row>
+    <row r="25" spans="2:5" ht="15" thickTop="1" thickBot="1">
+      <c r="C25" s="27">
         <v>41909</v>
       </c>
-      <c r="D23" s="62" t="s">
+      <c r="D25" s="62" t="s">
         <v>304</v>
       </c>
-      <c r="E23" s="62"/>
-    </row>
-    <row r="24" spans="2:5" ht="14.25" thickTop="1">
-      <c r="C24" s="27">
+      <c r="E25" s="62"/>
+    </row>
+    <row r="26" spans="2:5" ht="14.25" thickTop="1">
+      <c r="C26" s="27">
         <v>41908</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D26" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="C25" s="28"/>
-      <c r="D25" s="1" t="s">
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="C27" s="28"/>
+      <c r="D27" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="C26" s="28"/>
-      <c r="D26" s="1" t="s">
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="C28" s="28"/>
+      <c r="D28" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="2:5" ht="14.25" thickBot="1">
-      <c r="C27" s="29"/>
-      <c r="D27" s="25" t="s">
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="2:5" ht="14.25" thickBot="1">
+      <c r="C29" s="29"/>
+      <c r="D29" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="E27" s="25"/>
-    </row>
-    <row r="28" spans="2:5" ht="14.25" thickTop="1">
-      <c r="C28" s="58">
+      <c r="E29" s="25"/>
+    </row>
+    <row r="30" spans="2:5" ht="14.25" thickTop="1">
+      <c r="C30" s="58">
         <v>41907.997525925923</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="D30" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="E28" s="59"/>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="C29" s="27"/>
-      <c r="D29" s="7" t="s">
+      <c r="E30" s="59"/>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="C31" s="27"/>
+      <c r="D31" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="C30" s="28"/>
-      <c r="D30" s="1" t="s">
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="C32" s="28"/>
+      <c r="D32" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="C31" s="28"/>
-      <c r="D31" s="1" t="s">
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33" s="28"/>
+      <c r="D33" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="2:5" ht="14.25" thickBot="1">
-      <c r="C32" s="29"/>
-      <c r="D32" s="25" t="s">
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="3:5" ht="14.25" thickBot="1">
+      <c r="C34" s="29"/>
+      <c r="D34" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E32" s="25"/>
-    </row>
-    <row r="33" spans="3:3" ht="14.25" thickTop="1">
-      <c r="C33" s="30"/>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34" s="30"/>
-    </row>
-    <row r="35" spans="3:3">
+      <c r="E34" s="25"/>
+    </row>
+    <row r="35" spans="3:5" ht="14.25" thickTop="1">
       <c r="C35" s="30"/>
     </row>
-    <row r="36" spans="3:3">
+    <row r="36" spans="3:5">
       <c r="C36" s="30"/>
     </row>
-    <row r="37" spans="3:3">
+    <row r="37" spans="3:5">
       <c r="C37" s="30"/>
     </row>
-    <row r="38" spans="3:3">
+    <row r="38" spans="3:5">
       <c r="C38" s="30"/>
     </row>
-    <row r="39" spans="3:3">
+    <row r="39" spans="3:5">
       <c r="C39" s="30"/>
     </row>
-    <row r="40" spans="3:3">
+    <row r="40" spans="3:5">
       <c r="C40" s="30"/>
     </row>
-    <row r="41" spans="3:3">
+    <row r="41" spans="3:5">
       <c r="C41" s="30"/>
     </row>
-    <row r="42" spans="3:3">
+    <row r="42" spans="3:5">
       <c r="C42" s="30"/>
     </row>
-    <row r="43" spans="3:3">
+    <row r="43" spans="3:5">
       <c r="C43" s="30"/>
     </row>
-    <row r="44" spans="3:3">
+    <row r="44" spans="3:5">
       <c r="C44" s="30"/>
     </row>
-    <row r="45" spans="3:3">
+    <row r="45" spans="3:5">
       <c r="C45" s="30"/>
     </row>
-    <row r="46" spans="3:3">
+    <row r="46" spans="3:5">
       <c r="C46" s="30"/>
     </row>
-    <row r="47" spans="3:3">
+    <row r="47" spans="3:5">
       <c r="C47" s="30"/>
     </row>
-    <row r="48" spans="3:3">
+    <row r="48" spans="3:5">
       <c r="C48" s="30"/>
     </row>
     <row r="49" spans="3:3">
@@ -4653,6 +5463,12 @@
     </row>
     <row r="91" spans="3:3">
       <c r="C91" s="30"/>
+    </row>
+    <row r="92" spans="3:3">
+      <c r="C92" s="30"/>
+    </row>
+    <row r="93" spans="3:3">
+      <c r="C93" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -8282,6 +9098,1328 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:N97"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14">
+      <c r="B2" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="17"/>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="B3" s="21"/>
+      <c r="C3" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="13"/>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="21"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="13"/>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="21"/>
+      <c r="C5" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="13"/>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="21"/>
+      <c r="C6" s="32">
+        <v>1</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="13"/>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="21"/>
+      <c r="C7" s="32">
+        <v>2</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="13"/>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="21"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="13"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="21"/>
+      <c r="C9" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="13"/>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="21"/>
+      <c r="C10" s="63" t="s">
+        <v>314</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>309</v>
+      </c>
+      <c r="E10" s="65" t="s">
+        <v>313</v>
+      </c>
+      <c r="F10" s="66" t="s">
+        <v>312</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="13"/>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="21"/>
+      <c r="C11" s="63" t="s">
+        <v>315</v>
+      </c>
+      <c r="D11" s="67" t="s">
+        <v>310</v>
+      </c>
+      <c r="E11" s="64" t="s">
+        <v>309</v>
+      </c>
+      <c r="F11" s="65" t="s">
+        <v>313</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="13"/>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="21"/>
+      <c r="C12" s="63" t="s">
+        <v>316</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>311</v>
+      </c>
+      <c r="E12" s="69" t="s">
+        <v>310</v>
+      </c>
+      <c r="F12" s="64" t="s">
+        <v>309</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="13"/>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="21"/>
+      <c r="C13" s="63" t="s">
+        <v>317</v>
+      </c>
+      <c r="D13" s="66" t="s">
+        <v>312</v>
+      </c>
+      <c r="E13" s="68" t="s">
+        <v>311</v>
+      </c>
+      <c r="F13" s="69" t="s">
+        <v>310</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="13"/>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="21"/>
+      <c r="C14" s="63" t="s">
+        <v>318</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>313</v>
+      </c>
+      <c r="E14" s="66" t="s">
+        <v>312</v>
+      </c>
+      <c r="F14" s="68" t="s">
+        <v>311</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="13"/>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="21"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="13"/>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="21"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="13"/>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="21"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="13"/>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" s="22"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="18"/>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="17"/>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="B26" s="21"/>
+      <c r="C26" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="13"/>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="21"/>
+      <c r="C27" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="13"/>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="B28" s="21"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="13"/>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="B29" s="21"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="13"/>
+    </row>
+    <row r="30" spans="2:14">
+      <c r="B30" s="21"/>
+      <c r="C30" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="13"/>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="B31" s="21"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="13"/>
+    </row>
+    <row r="32" spans="2:14">
+      <c r="B32" s="21"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="63" t="s">
+        <v>309</v>
+      </c>
+      <c r="E32" s="1">
+        <v>10</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="13"/>
+    </row>
+    <row r="33" spans="2:14">
+      <c r="B33" s="21"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="63" t="s">
+        <v>310</v>
+      </c>
+      <c r="E33" s="1">
+        <v>15</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="13"/>
+    </row>
+    <row r="34" spans="2:14">
+      <c r="B34" s="21"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="63" t="s">
+        <v>311</v>
+      </c>
+      <c r="E34" s="1">
+        <v>20</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="13"/>
+    </row>
+    <row r="35" spans="2:14">
+      <c r="B35" s="21"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="63" t="s">
+        <v>312</v>
+      </c>
+      <c r="E35" s="1">
+        <v>25</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="13"/>
+    </row>
+    <row r="36" spans="2:14">
+      <c r="B36" s="21"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="13"/>
+    </row>
+    <row r="37" spans="2:14">
+      <c r="B37" s="21"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="13"/>
+    </row>
+    <row r="38" spans="2:14">
+      <c r="B38" s="21"/>
+      <c r="C38" t="s">
+        <v>357</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="13"/>
+    </row>
+    <row r="39" spans="2:14">
+      <c r="B39" s="21"/>
+      <c r="C39" t="s">
+        <v>358</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="13"/>
+    </row>
+    <row r="40" spans="2:14">
+      <c r="B40" s="21"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="13"/>
+    </row>
+    <row r="41" spans="2:14">
+      <c r="B41" s="21"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="13"/>
+    </row>
+    <row r="42" spans="2:14">
+      <c r="B42" s="22"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="18"/>
+    </row>
+    <row r="44" spans="2:14">
+      <c r="B44" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="C44" s="16"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="17"/>
+    </row>
+    <row r="45" spans="2:14">
+      <c r="B45" s="21"/>
+      <c r="C45" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="13"/>
+    </row>
+    <row r="46" spans="2:14">
+      <c r="B46" s="21"/>
+      <c r="C46" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="13"/>
+    </row>
+    <row r="47" spans="2:14">
+      <c r="B47" s="21"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="13"/>
+    </row>
+    <row r="48" spans="2:14">
+      <c r="B48" s="21"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="35" t="s">
+        <v>340</v>
+      </c>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="13"/>
+    </row>
+    <row r="49" spans="2:14">
+      <c r="B49" s="21"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="13"/>
+    </row>
+    <row r="50" spans="2:14">
+      <c r="B50" s="21"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="13"/>
+    </row>
+    <row r="51" spans="2:14">
+      <c r="B51" s="21"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="13"/>
+    </row>
+    <row r="52" spans="2:14">
+      <c r="B52" s="21"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="13"/>
+    </row>
+    <row r="53" spans="2:14">
+      <c r="B53" s="21"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="13"/>
+    </row>
+    <row r="54" spans="2:14">
+      <c r="B54" s="21"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="13"/>
+    </row>
+    <row r="55" spans="2:14">
+      <c r="B55" s="21"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="35" t="s">
+        <v>347</v>
+      </c>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="13"/>
+    </row>
+    <row r="56" spans="2:14">
+      <c r="B56" s="21"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="13"/>
+    </row>
+    <row r="57" spans="2:14">
+      <c r="B57" s="21"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="13"/>
+    </row>
+    <row r="58" spans="2:14">
+      <c r="B58" s="21"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="13"/>
+    </row>
+    <row r="59" spans="2:14">
+      <c r="B59" s="21"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="13"/>
+    </row>
+    <row r="60" spans="2:14">
+      <c r="B60" s="22"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="18"/>
+    </row>
+    <row r="66" spans="2:14">
+      <c r="B66" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="C66" s="16"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="17"/>
+    </row>
+    <row r="67" spans="2:14">
+      <c r="B67" s="21"/>
+      <c r="C67" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="13"/>
+    </row>
+    <row r="68" spans="2:14">
+      <c r="B68" s="21"/>
+      <c r="C68" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="13"/>
+    </row>
+    <row r="69" spans="2:14">
+      <c r="B69" s="21"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="13"/>
+    </row>
+    <row r="70" spans="2:14">
+      <c r="B70" s="21"/>
+      <c r="C70" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="13"/>
+    </row>
+    <row r="71" spans="2:14">
+      <c r="B71" s="21"/>
+      <c r="C71" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="13"/>
+    </row>
+    <row r="72" spans="2:14">
+      <c r="B72" s="21"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="13"/>
+    </row>
+    <row r="73" spans="2:14">
+      <c r="B73" s="21"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="13"/>
+    </row>
+    <row r="74" spans="2:14">
+      <c r="B74" s="22"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="18"/>
+    </row>
+    <row r="81" spans="2:14">
+      <c r="B81" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="C81" s="16"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="20"/>
+      <c r="K81" s="20"/>
+      <c r="L81" s="20"/>
+      <c r="M81" s="20"/>
+      <c r="N81" s="17"/>
+    </row>
+    <row r="82" spans="2:14">
+      <c r="B82" s="21"/>
+      <c r="C82" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="13"/>
+    </row>
+    <row r="83" spans="2:14">
+      <c r="B83" s="21"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="13"/>
+    </row>
+    <row r="84" spans="2:14">
+      <c r="B84" s="21"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="13"/>
+    </row>
+    <row r="85" spans="2:14">
+      <c r="B85" s="21"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="13"/>
+    </row>
+    <row r="86" spans="2:14">
+      <c r="B86" s="21"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="13"/>
+    </row>
+    <row r="87" spans="2:14">
+      <c r="B87" s="21"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="13"/>
+    </row>
+    <row r="88" spans="2:14">
+      <c r="B88" s="21"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="13"/>
+    </row>
+    <row r="89" spans="2:14">
+      <c r="B89" s="21"/>
+      <c r="C89" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="13"/>
+    </row>
+    <row r="90" spans="2:14">
+      <c r="B90" s="21"/>
+      <c r="C90" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="13"/>
+    </row>
+    <row r="91" spans="2:14">
+      <c r="B91" s="21"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="13"/>
+    </row>
+    <row r="92" spans="2:14">
+      <c r="B92" s="21"/>
+      <c r="C92" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="13"/>
+    </row>
+    <row r="93" spans="2:14">
+      <c r="B93" s="21"/>
+      <c r="C93" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="13"/>
+    </row>
+    <row r="94" spans="2:14">
+      <c r="B94" s="21"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="13"/>
+    </row>
+    <row r="95" spans="2:14">
+      <c r="B95" s="21"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="13"/>
+    </row>
+    <row r="96" spans="2:14">
+      <c r="B96" s="21"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="13"/>
+    </row>
+    <row r="97" spans="2:14">
+      <c r="B97" s="22"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="12"/>
+      <c r="L97" s="12"/>
+      <c r="M97" s="12"/>
+      <c r="N97" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -8293,7 +10431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C23"/>
   <sheetViews>
